--- a/DESEMBOLSOS XLSX/DESEMBOLSOS GENERAL.xlsx
+++ b/DESEMBOLSOS XLSX/DESEMBOLSOS GENERAL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14385" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14385" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="HYO" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="286">
   <si>
     <t>NUMERO</t>
   </si>
@@ -325,9 +325,6 @@
     <t>41976551</t>
   </si>
   <si>
-    <t>HCVA</t>
-  </si>
-  <si>
     <t>Casas Tobar Essaud</t>
   </si>
   <si>
@@ -374,6 +371,516 @@
   </si>
   <si>
     <t>76726324</t>
+  </si>
+  <si>
+    <t>Leon Rivera Juan Josecruz</t>
+  </si>
+  <si>
+    <t>Echevarria Castro Angela</t>
+  </si>
+  <si>
+    <t>Suasnabar Coris Sandra Aracelly</t>
+  </si>
+  <si>
+    <t>Huincho Huarcaya Juana</t>
+  </si>
+  <si>
+    <t>46111214</t>
+  </si>
+  <si>
+    <t>42406861</t>
+  </si>
+  <si>
+    <t>45882389</t>
+  </si>
+  <si>
+    <t>42038737</t>
+  </si>
+  <si>
+    <t>Romero Crisostomo Alicia</t>
+  </si>
+  <si>
+    <t>Salome Quispe Linda Karina</t>
+  </si>
+  <si>
+    <t>Paitan Araujo Justina</t>
+  </si>
+  <si>
+    <t>De La Cruz Chumbes Jorge Fernando</t>
+  </si>
+  <si>
+    <t>41938976</t>
+  </si>
+  <si>
+    <t>44962366</t>
+  </si>
+  <si>
+    <t>41225444</t>
+  </si>
+  <si>
+    <t>74218395</t>
+  </si>
+  <si>
+    <t>Rodriguez Ospina Nicole Gloria</t>
+  </si>
+  <si>
+    <t>Ilizarbe Lopez Midaly</t>
+  </si>
+  <si>
+    <t>61216745</t>
+  </si>
+  <si>
+    <t>46244318</t>
+  </si>
+  <si>
+    <t>Huaynate Romani Marco Antonio</t>
+  </si>
+  <si>
+    <t>44418009</t>
+  </si>
+  <si>
+    <t>Canto Marmanillo Estefany Carolina</t>
+  </si>
+  <si>
+    <t>74361405</t>
+  </si>
+  <si>
+    <t>Rodriguez Huaman Ana</t>
+  </si>
+  <si>
+    <t>20073560</t>
+  </si>
+  <si>
+    <t>Choque Tovar Elisa</t>
+  </si>
+  <si>
+    <t>40194382</t>
+  </si>
+  <si>
+    <t>Rodriguez De La Cruz William Joel</t>
+  </si>
+  <si>
+    <t>Rosales Zevallos Elizabeth Nancy</t>
+  </si>
+  <si>
+    <t>Ariche Belito Johan Hilder</t>
+  </si>
+  <si>
+    <t>Delgadillo Alarcon Kathia Lizbeth</t>
+  </si>
+  <si>
+    <t>Chihuan Palomino Dario Ruben</t>
+  </si>
+  <si>
+    <t>44127903</t>
+  </si>
+  <si>
+    <t>41708355</t>
+  </si>
+  <si>
+    <t>73393597</t>
+  </si>
+  <si>
+    <t>77062401</t>
+  </si>
+  <si>
+    <t>20036334</t>
+  </si>
+  <si>
+    <t>Sedano Chavez Isabel Felicita</t>
+  </si>
+  <si>
+    <t>23683706</t>
+  </si>
+  <si>
+    <t>Nateros Bujaico Juan Antonio</t>
+  </si>
+  <si>
+    <t>80005813</t>
+  </si>
+  <si>
+    <t>Juycapusa Donato Beatriz</t>
+  </si>
+  <si>
+    <t>48075159</t>
+  </si>
+  <si>
+    <t>Vila Ramos Fortunata</t>
+  </si>
+  <si>
+    <t>23256958</t>
+  </si>
+  <si>
+    <t>Tabra Espinoza Norma Angelica</t>
+  </si>
+  <si>
+    <t>19820928</t>
+  </si>
+  <si>
+    <t>Ccora Jurado Heber</t>
+  </si>
+  <si>
+    <t>44985288</t>
+  </si>
+  <si>
+    <t>Requena Maldonado Max</t>
+  </si>
+  <si>
+    <t>45348884</t>
+  </si>
+  <si>
+    <t>Castro Olarte Gumersinda</t>
+  </si>
+  <si>
+    <t>23265643</t>
+  </si>
+  <si>
+    <t>Quinto Guzman Carlos Manuel</t>
+  </si>
+  <si>
+    <t>73739048</t>
+  </si>
+  <si>
+    <t>Carhuapoma Quispe Nando Jhefri</t>
+  </si>
+  <si>
+    <t>71206183</t>
+  </si>
+  <si>
+    <t>Montañez Perez Alberta</t>
+  </si>
+  <si>
+    <t>23256214</t>
+  </si>
+  <si>
+    <t>Ichpas Sanchez Graciela</t>
+  </si>
+  <si>
+    <t>23272483</t>
+  </si>
+  <si>
+    <t>Crispin Alfonso Edison</t>
+  </si>
+  <si>
+    <t>71097629</t>
+  </si>
+  <si>
+    <t>Bautista Valladolid Angelina</t>
+  </si>
+  <si>
+    <t>71380054</t>
+  </si>
+  <si>
+    <t>Cardenas Mitma Constantino</t>
+  </si>
+  <si>
+    <t>23708705</t>
+  </si>
+  <si>
+    <t>Leucalla Montes Ada Ruth</t>
+  </si>
+  <si>
+    <t>23716803</t>
+  </si>
+  <si>
+    <t>Lezama Flores Luz Gladys</t>
+  </si>
+  <si>
+    <t>23642560</t>
+  </si>
+  <si>
+    <t>Huaripaita Cisneros Elvis Alberto</t>
+  </si>
+  <si>
+    <t>43879937</t>
+  </si>
+  <si>
+    <t>Quispe Colonio Estefany Guadalupe</t>
+  </si>
+  <si>
+    <t>48597848</t>
+  </si>
+  <si>
+    <t>Paitan De La Cruz Sonia</t>
+  </si>
+  <si>
+    <t>44639383</t>
+  </si>
+  <si>
+    <t>Alfaro Pañura Leonel</t>
+  </si>
+  <si>
+    <t>61278344</t>
+  </si>
+  <si>
+    <t>Reyes Madrid Nataly Angelica</t>
+  </si>
+  <si>
+    <t>70771921</t>
+  </si>
+  <si>
+    <t>Casallo Cerron Veronica</t>
+  </si>
+  <si>
+    <t>42004920</t>
+  </si>
+  <si>
+    <t>Rojas Soriano Said Noemi</t>
+  </si>
+  <si>
+    <t>48551269</t>
+  </si>
+  <si>
+    <t>Parque Contreras Mery Luz</t>
+  </si>
+  <si>
+    <t>71971608</t>
+  </si>
+  <si>
+    <t>Huamanlazo Ramos Beatriz Isabel</t>
+  </si>
+  <si>
+    <t>76726770</t>
+  </si>
+  <si>
+    <t>Pilco Lazo Tonny Jose</t>
+  </si>
+  <si>
+    <t>42444810</t>
+  </si>
+  <si>
+    <t>Ordoñez Cayetano Eglis</t>
+  </si>
+  <si>
+    <t>73806352</t>
+  </si>
+  <si>
+    <t>Espinoza Paitan Guillermo</t>
+  </si>
+  <si>
+    <t>23207944</t>
+  </si>
+  <si>
+    <t>Ayuque Quispe Olga</t>
+  </si>
+  <si>
+    <t>46928848</t>
+  </si>
+  <si>
+    <t>Aguirre Ramos Adelia</t>
+  </si>
+  <si>
+    <t>09608481</t>
+  </si>
+  <si>
+    <t>Ccanto Quispe Cerafina</t>
+  </si>
+  <si>
+    <t>41301564</t>
+  </si>
+  <si>
+    <t>Alfaro Trujillo Aracely Mayde</t>
+  </si>
+  <si>
+    <t>48358308</t>
+  </si>
+  <si>
+    <t>Torres Quispe Gissela Carina</t>
+  </si>
+  <si>
+    <t>48892362</t>
+  </si>
+  <si>
+    <t>Hinostroza Gonzales Roxana</t>
+  </si>
+  <si>
+    <t>45744569</t>
+  </si>
+  <si>
+    <t>Rivas Castañeda Michael Jhon</t>
+  </si>
+  <si>
+    <t>Arancibia Torres De Ledesma Viviana Lucila</t>
+  </si>
+  <si>
+    <t>42491411</t>
+  </si>
+  <si>
+    <t>41930172</t>
+  </si>
+  <si>
+    <t>Enciso Roca Nestor</t>
+  </si>
+  <si>
+    <t>43537510</t>
+  </si>
+  <si>
+    <t>Romero Castañeda Wilmer Crisanto</t>
+  </si>
+  <si>
+    <t>20077392</t>
+  </si>
+  <si>
+    <t>Ochoa Felen Anyela Del Rosario</t>
+  </si>
+  <si>
+    <t>48326109</t>
+  </si>
+  <si>
+    <t>Mucha Ugarte Isabel Del Rosario</t>
+  </si>
+  <si>
+    <t>19994448</t>
+  </si>
+  <si>
+    <t>Ruiz Contreras Pedro Wiliam</t>
+  </si>
+  <si>
+    <t>20071902</t>
+  </si>
+  <si>
+    <t>Alzamora Muñoz Neri Adi</t>
+  </si>
+  <si>
+    <t>44550507</t>
+  </si>
+  <si>
+    <t>Acuña Toralva Jessica Rocio</t>
+  </si>
+  <si>
+    <t>20090633</t>
+  </si>
+  <si>
+    <t>Ramos Huayra Jhoselin Elsa</t>
+  </si>
+  <si>
+    <t>72237335</t>
+  </si>
+  <si>
+    <t>Alfonso Miranda Paul</t>
+  </si>
+  <si>
+    <t>41769688</t>
+  </si>
+  <si>
+    <t>Condori Aguirre Mayly Maryori</t>
+  </si>
+  <si>
+    <t>48657017</t>
+  </si>
+  <si>
+    <t>Ayala Huallpa Oscar Danny</t>
+  </si>
+  <si>
+    <t>40958968</t>
+  </si>
+  <si>
+    <t>Benito Mencia Doris Angelica</t>
+  </si>
+  <si>
+    <t>43663022</t>
+  </si>
+  <si>
+    <t>Lazo Vda. De Curipaco Dionisia</t>
+  </si>
+  <si>
+    <t>23202615</t>
+  </si>
+  <si>
+    <t>Rojas Carhuacosma Hermelinda</t>
+  </si>
+  <si>
+    <t>23646713</t>
+  </si>
+  <si>
+    <t>Gutierrez Flores Edelina</t>
+  </si>
+  <si>
+    <t>80011477</t>
+  </si>
+  <si>
+    <t>Chahua Condor Ande</t>
+  </si>
+  <si>
+    <t>44694699</t>
+  </si>
+  <si>
+    <t>Pizarro Chamorro Robert Jhulver</t>
+  </si>
+  <si>
+    <t>71387109</t>
+  </si>
+  <si>
+    <t>Osores Flores Rosalia</t>
+  </si>
+  <si>
+    <t>42329850</t>
+  </si>
+  <si>
+    <t>Paucar Perez Alexander</t>
+  </si>
+  <si>
+    <t>41201741</t>
+  </si>
+  <si>
+    <t>Laura De La Cruz Noemi Elizabeth</t>
+  </si>
+  <si>
+    <t>40445879</t>
+  </si>
+  <si>
+    <t>Barrera Berrocal Yasmid Milagros</t>
+  </si>
+  <si>
+    <t>77420545</t>
+  </si>
+  <si>
+    <t>Sosa Bellido Flor De Maria Eulalia</t>
+  </si>
+  <si>
+    <t>20567192</t>
+  </si>
+  <si>
+    <t>Olivera Castañeda Sleiter Kevil</t>
+  </si>
+  <si>
+    <t>73796295</t>
+  </si>
+  <si>
+    <t>Orezano Cordova Daniel Elias</t>
+  </si>
+  <si>
+    <t>41896458</t>
+  </si>
+  <si>
+    <t>Ayala Moreno Alberto Aniceto</t>
+  </si>
+  <si>
+    <t>16000767</t>
+  </si>
+  <si>
+    <t>Torres Maravi Rodolfo Victor</t>
+  </si>
+  <si>
+    <t>20012238</t>
+  </si>
+  <si>
+    <t>Quispe Chaupis Alex Richard</t>
+  </si>
+  <si>
+    <t>44287026</t>
+  </si>
+  <si>
+    <t>Izquierdo Miranda Bety Guadalupe</t>
+  </si>
+  <si>
+    <t>20662490</t>
+  </si>
+  <si>
+    <t>Ccosco Porras Sheyla Juliana</t>
+  </si>
+  <si>
+    <t>46434698</t>
   </si>
 </sst>
 </file>
@@ -405,7 +912,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,25 +921,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,24 +950,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A40" sqref="A34:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -824,516 +1305,1056 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>83.39</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <f t="shared" ref="E2:E14" si="0">(D2*0.18)+D2</f>
         <v>98.400199999999998</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>44567</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>119.32203389830509</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f t="shared" si="0"/>
         <v>140.80000000000001</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>44567</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>83.39</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" si="0"/>
         <v>98.400199999999998</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>44567</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>71.186440677966104</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>44567</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>59.661016949152547</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>44567</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>104.24</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>123.00319999999999</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>44568</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>53.56</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>63.200800000000001</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>44568</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>29.83</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>35.199399999999997</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>44568</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>127.12</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>150.0016</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>44568</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="7">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="1">
         <v>44.58</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>52.604399999999998</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="3">
         <v>44569</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="7">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="1">
         <v>109.15</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>128.797</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="3">
         <v>44569</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="7">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="1">
         <v>59.66</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>70.398799999999994</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="3">
         <v>44569</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="7">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="1">
         <v>59.66</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>70.398799999999994</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="3">
         <v>44569</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>152.54237288135593</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f>(D15*0.18)+D15</f>
         <v>180</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="5">
         <v>44571</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>62.711864406779661</v>
       </c>
-      <c r="E16" s="3">
-        <f t="shared" ref="E16:E20" si="1">(D16*0.18)+D16</f>
+      <c r="E16" s="2">
+        <f t="shared" ref="E16:E40" si="1">(D16*0.18)+D16</f>
         <v>74</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="5">
         <v>44571</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>62.796610169491522</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <f t="shared" si="1"/>
         <v>74.099999999999994</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>1</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="5">
         <v>44571</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>244.74576271186442</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <f t="shared" si="1"/>
         <v>288.8</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>1</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="5">
         <v>44571</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>39.66101694915254</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <f t="shared" si="1"/>
         <v>46.8</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>1</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="5">
         <v>44571</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>62.711864406779661</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>1</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="5">
         <v>44571</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="1">
+        <v>94.915254237288138</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="3">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="1">
+        <v>50.847457627118644</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="3">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44.576271186440678</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="1"/>
+        <v>52.6</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="3">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="1">
+        <v>84.745762711864415</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="1"/>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="3">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="1">
+        <v>59.661016949152547</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="1"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="3">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="1">
+        <v>118.64406779661017</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="3">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="1">
+        <v>12.881355932203389</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="1"/>
+        <v>15.2</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="3">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="1">
+        <v>119.32203389830509</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="1"/>
+        <v>140.80000000000001</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="3">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="1">
+        <v>50.847457627118644</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="3">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D30" s="1">
+        <v>109.15254237288137</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="1"/>
+        <v>128.80000000000001</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="3">
+        <v>44574</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D31" s="1">
+        <v>30.16949152542373</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="1"/>
+        <v>35.6</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="3">
+        <v>44574</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D32" s="1">
+        <v>109.15254237288137</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="1"/>
+        <v>128.80000000000001</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="3">
+        <v>44574</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" s="1">
+        <v>23.898305084745765</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="1"/>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="3">
+        <v>44574</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D34" s="1">
+        <v>101.69491525423729</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="3">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D35" s="1">
+        <v>26.949152542372882</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="1"/>
+        <v>31.8</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="3">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D36" s="1">
+        <v>44.576271186440678</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="1"/>
+        <v>52.6</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="3">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D37" s="1">
+        <v>133.89830508474577</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="1"/>
+        <v>158</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="3">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D38" s="1">
+        <v>71.355932203389841</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="1"/>
+        <v>84.200000000000017</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="3">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D39" s="1">
+        <v>62.711864406779661</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="3">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D40" s="1">
+        <v>119.32203389830509</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="1"/>
+        <v>140.80000000000001</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="3">
+        <v>44575</v>
       </c>
     </row>
   </sheetData>
@@ -1344,10 +2365,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1382,216 +2403,732 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>50.847457627118644</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <f>(D2*0.18)+D2</f>
         <v>60</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>44567</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>30.508474576271187</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f>(D3*0.18)+D3</f>
         <v>36</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>44567</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>71.53</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f>(D4*0.18)+D4</f>
         <v>84.4054</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>44568</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>30.51</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f>(D5*0.18)+D5</f>
         <v>36.001800000000003</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>44568</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7">
+      <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="1">
         <v>63.559322033898312</v>
       </c>
-      <c r="E6" s="8">
-        <f>(D6*0.18)+D6</f>
+      <c r="E6" s="2">
+        <f t="shared" ref="E6:E28" si="0">(D6*0.18)+D6</f>
         <v>75</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="1">
         <v>2</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="3">
         <v>44569</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>30.508474576271187</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="6">
+      <c r="C8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="1">
+        <v>71.186440677966104</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="3">
         <v>44571</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D8">
+      <c r="C9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="1">
+        <v>25.423728813559322</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="3">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="1">
+        <v>72.203389830508485</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>85.200000000000017</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="3">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="1">
+        <v>76.440677966101703</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>90.2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="3">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="1">
+        <v>42.542372881355938</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>50.2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="3">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="1">
+        <v>152.54237288135593</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="3">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="1">
+        <v>61.016949152542374</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="3">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="1">
         <v>71.186440677966104</v>
       </c>
-      <c r="E8">
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="F8">
+      <c r="F15" s="1">
         <v>2</v>
       </c>
-      <c r="G8" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="6">
-        <v>44571</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9">
+      <c r="G15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="3">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="1">
+        <v>42.372881355932208</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>50.000000000000007</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="3">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="1">
         <v>25.423728813559322</v>
       </c>
-      <c r="E9">
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F9">
+      <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="G9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="6">
-        <v>44571</v>
+      <c r="G17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="3">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="1">
+        <v>25.423728813559322</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="3">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="1">
+        <v>30.508474576271187</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="3">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="1">
+        <v>76.610169491525426</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>90.4</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="3">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" s="1">
+        <v>25.423728813559322</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="3">
+        <v>44574</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" s="1">
+        <v>127.11864406779662</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="3">
+        <v>44574</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" s="1">
+        <v>22.881355932203391</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="3">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D24" s="1">
+        <v>40.677966101694921</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>48.000000000000007</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="3">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D25" s="1">
+        <v>30.508474576271187</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="3">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D26" s="1">
+        <v>71.186440677966104</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="3">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D27" s="1">
+        <v>30.677966101694921</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>36.200000000000003</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="3">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D28" s="1">
+        <v>101.69491525423729</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="3">
+        <v>44575</v>
       </c>
     </row>
   </sheetData>
@@ -1602,10 +3139,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1614,7 +3151,7 @@
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1640,224 +3177,656 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2">
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>40.677966101694921</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <f>(D2*0.18)+D2</f>
         <v>48.000000000000007</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>44567</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2">
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>94.915254237288138</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f>(D3*0.18)+D3</f>
         <v>112</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>44567</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2">
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>68.47</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f>(D4*0.18)+D4</f>
         <v>80.794600000000003</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>44568</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="7">
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="1">
         <v>169.49152542372883</v>
       </c>
-      <c r="E5" s="8">
-        <f t="shared" ref="E5:E9" si="0">(D5*0.18)+D5</f>
+      <c r="E5" s="2">
+        <f t="shared" ref="E5:E25" si="0">(D5*0.18)+D5</f>
         <v>200.00000000000003</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="3">
         <v>44569</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="7">
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="1">
         <v>27.966101694915256</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="3">
         <v>44569</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="11">
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="2">
+        <v>89.491525423728817</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>105.6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="5">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="11">
-        <v>89.491525423728817</v>
-      </c>
-      <c r="E7" s="11">
-        <f t="shared" si="0"/>
-        <v>105.6</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="C8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="2">
+        <v>40.677966101694921</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>48.000000000000007</v>
+      </c>
+      <c r="F8" s="2">
         <v>3</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H8" s="5">
         <v>44571</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="11" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="11">
-        <v>40.677966101694921</v>
-      </c>
-      <c r="E8" s="11">
-        <f t="shared" si="0"/>
-        <v>48.000000000000007</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="C9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="2">
+        <v>32.203389830508478</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="F9" s="2">
         <v>3</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H9" s="5">
         <v>44571</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="11">
-        <v>32.203389830508478</v>
-      </c>
-      <c r="E9" s="11">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="F9" s="11">
+    <row r="10" spans="1:9">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="1">
+        <v>48.813559322033903</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>57.600000000000009</v>
+      </c>
+      <c r="F10" s="2">
         <v>3</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="12">
-        <v>44571</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="E11" s="1"/>
+      <c r="H10" s="5">
+        <v>44572</v>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="1">
+        <v>68.474576271186436</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>80.8</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="5">
+        <v>44572</v>
+      </c>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="1">
+        <v>26.779661016949156</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>31.600000000000005</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="5">
+        <v>44573</v>
+      </c>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="1">
+        <v>43.389830508474581</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>51.2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="5">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="1">
+        <v>30.16949152542373</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>35.6</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="5">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="1">
+        <v>17.796610169491526</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="5">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="1">
+        <v>160.33898305084745</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>189.2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="5">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" s="1">
+        <v>122.03389830508475</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="5">
+        <v>44574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" s="1">
+        <v>20.16949152542373</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>23.8</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="5">
+        <v>44574</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" s="1">
+        <v>47.118644067796616</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>55.600000000000009</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="5">
+        <v>44574</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" s="1">
+        <v>42.457627118644069</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>50.1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="5">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D21" s="1">
+        <v>31.610169491525422</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>37.299999999999997</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="5">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D22" s="1">
+        <v>127.45762711864408</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>150.4</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="5">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D23" s="1">
+        <v>68.474576271186436</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>80.8</v>
+      </c>
+      <c r="F23" s="2">
+        <v>3</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="5">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D24" s="1">
+        <v>136.4406779661017</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="5">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D25" s="1">
+        <v>61.016949152542374</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="5">
+        <v>44575</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1866,10 +3835,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1904,327 +3873,733 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>34.237288135593218</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <f>(D2*0.18)+D2</f>
         <v>40.4</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>44567</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>59.661016949152547</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f>(D3*0.18)+D3</f>
         <v>70.400000000000006</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>44567</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>101.86440677966102</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f>(D4*0.18)+D4</f>
         <v>120.2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>44567</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>118.64</v>
       </c>
-      <c r="E5" s="3">
-        <f t="shared" ref="E5:E13" si="0">(D5*0.18)+D5</f>
+      <c r="E5" s="2">
+        <f t="shared" ref="E5:E28" si="0">(D5*0.18)+D5</f>
         <v>139.99520000000001</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>44568</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>35.76</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>42.196799999999996</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>44568</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>42.71</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>50.397800000000004</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>4</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>44568</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="7">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="1">
         <v>40.677966101694921</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>48.000000000000007</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="1">
         <v>4</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="3">
         <v>44569</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="7">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="1">
         <v>119.32203389830509</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>140.80000000000001</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="1">
         <v>4</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="3">
         <v>44569</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="7">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="1">
         <v>122.03389830508475</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="1">
         <v>4</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="3">
         <v>44569</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="13">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="2">
+        <v>139.66101694915255</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>164.8</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="5">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="13">
-        <v>139.66101694915255</v>
-      </c>
-      <c r="E11" s="13">
-        <f t="shared" si="0"/>
-        <v>164.8</v>
-      </c>
-      <c r="F11" s="13">
+      <c r="C12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="2">
+        <v>35.762711864406782</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>42.2</v>
+      </c>
+      <c r="F12" s="2">
         <v>4</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H12" s="5">
         <v>44571</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="13">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="13" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="13">
+      <c r="C13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="2">
+        <v>59.661016949152547</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="5">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="1">
+        <v>119.32203389830509</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>140.80000000000001</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="5">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="1">
+        <v>40.677966101694921</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>48.000000000000007</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="5">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="1">
+        <v>54.576271186440685</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>64.400000000000006</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="5">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="1">
+        <v>22.372881355932204</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>26.4</v>
+      </c>
+      <c r="F17" s="2">
+        <v>4</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="5">
+        <v>44572</v>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="1">
+        <v>48.135593220338983</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>56.8</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="5">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="1">
+        <v>98.983050847457633</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>116.80000000000001</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="5">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" s="1">
+        <v>17.966101694915256</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>21.200000000000003</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="5">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="1">
         <v>35.762711864406782</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>42.2</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F21" s="2">
         <v>4</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="14">
-        <v>44571</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="13">
-        <v>59.661016949152547</v>
-      </c>
-      <c r="E13" s="13">
-        <f t="shared" si="0"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="H21" s="5">
+        <v>44574</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" s="1">
+        <v>152.54237288135593</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="F22" s="2">
         <v>4</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="14">
-        <v>44571</v>
+      <c r="H22" s="5">
+        <v>44574</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D23" s="1">
+        <v>80.000000000000014</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>94.40000000000002</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="5">
+        <v>44574</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D24" s="1">
+        <v>149.15254237288136</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="F24" s="2">
+        <v>4</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="5">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D25" s="1">
+        <v>203.38983050847457</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="F25" s="2">
+        <v>4</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="5">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D26" s="1">
+        <v>89.152542372881356</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>105.2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>4</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="5">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D27" s="1">
+        <v>55.254237288135599</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>65.2</v>
+      </c>
+      <c r="F27" s="2">
+        <v>4</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="5">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D28" s="1">
+        <v>62.796610169491522</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>74.099999999999994</v>
+      </c>
+      <c r="F28" s="2">
+        <v>4</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="5">
+        <v>44575</v>
       </c>
     </row>
   </sheetData>
@@ -2234,10 +4609,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2272,138 +4647,543 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>40.677966101694921</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <f>(D2*0.18)+D2</f>
         <v>48.000000000000007</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>44567</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>76.440677966101703</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f>(D3*0.18)+D3</f>
         <v>90.2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>44567</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>237.29</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f>(D4*0.18)+D4</f>
         <v>280.00220000000002</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>5</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>44568</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="7">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="1">
         <v>68.474576271186436</v>
       </c>
-      <c r="E5" s="8">
-        <f t="shared" ref="E5:E6" si="0">(D5*0.18)+D5</f>
+      <c r="E5" s="2">
+        <f t="shared" ref="E5:E14" si="0">(D5*0.18)+D5</f>
         <v>80.8</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="1">
         <v>5</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="3">
         <v>44569</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="1">
         <v>68.474576271186436</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>80.8</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="3">
         <v>44569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="1">
+        <v>35.762711864406782</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>42.2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="3">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44.491525423728817</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="3">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="1">
+        <v>24.576271186440678</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="3">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="1">
+        <v>27.966101694915256</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="3">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="1">
+        <v>15.254237288135593</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="3">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="1">
+        <v>37.288135593220339</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="3">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="1">
+        <v>68.474576271186436</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>80.8</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="3">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="1">
+        <v>76.440677966101703</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>90.2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="3">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="1">
+        <v>178.30508474576271</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" ref="E15" si="1">(D15*0.18)+D15</f>
+        <v>210.4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="3">
+        <v>44574</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" s="1">
+        <v>176.27118644067798</v>
+      </c>
+      <c r="E16" s="2">
+        <f>(D16*0.18)+D16</f>
+        <v>208</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="3">
+        <v>44574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D17" s="1">
+        <v>99.322033898305094</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17:E21" si="2">(D17*0.18)+D17</f>
+        <v>117.20000000000002</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="3">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D18" s="1">
+        <v>68.474576271186436</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="2"/>
+        <v>80.8</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="3">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D19" s="1">
+        <v>34.576271186440678</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="3">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D20" s="1">
+        <v>13.559322033898306</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F20" s="1">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="3">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D21" s="1">
+        <v>139.66101694915255</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="2"/>
+        <v>164.8</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="3">
+        <v>44575</v>
       </c>
     </row>
   </sheetData>

--- a/DESEMBOLSOS XLSX/DESEMBOLSOS GENERAL.xlsx
+++ b/DESEMBOLSOS XLSX/DESEMBOLSOS GENERAL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14385" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14385" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="HYO" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="TAMBO" sheetId="4" r:id="rId4"/>
     <sheet name="CHILCA" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511" calcMode="autoNoTable"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4068" uniqueCount="2247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4797" uniqueCount="2525">
   <si>
     <t>NUMERO</t>
   </si>
@@ -6764,6 +6764,840 @@
   </si>
   <si>
     <t>45458112</t>
+  </si>
+  <si>
+    <t>Joaquin Castillo Jenny Marilu</t>
+  </si>
+  <si>
+    <t>19908776</t>
+  </si>
+  <si>
+    <t>Paucar Gutarra Ruth Luz</t>
+  </si>
+  <si>
+    <t>21004954</t>
+  </si>
+  <si>
+    <t>Zambrano Gamboa Consuelo Natividad</t>
+  </si>
+  <si>
+    <t>19850911</t>
+  </si>
+  <si>
+    <t>Felix Yalu Noemi Rosa</t>
+  </si>
+  <si>
+    <t>20121304</t>
+  </si>
+  <si>
+    <t>Barra Meza Yanfrow Antony</t>
+  </si>
+  <si>
+    <t>71468848</t>
+  </si>
+  <si>
+    <t>Briceño Laura Mercedes Bertila</t>
+  </si>
+  <si>
+    <t>20111593</t>
+  </si>
+  <si>
+    <t>Espinoza Cconislla Criselda</t>
+  </si>
+  <si>
+    <t>23266876</t>
+  </si>
+  <si>
+    <t>Ramos Olarte David Gustavo</t>
+  </si>
+  <si>
+    <t>47790717</t>
+  </si>
+  <si>
+    <t>Mallqui Quispe Catalina</t>
+  </si>
+  <si>
+    <t>23200576</t>
+  </si>
+  <si>
+    <t>Zuasnabar Zuñiga De Rivera Diana</t>
+  </si>
+  <si>
+    <t>71209282</t>
+  </si>
+  <si>
+    <t>Meza Barreto Jorge</t>
+  </si>
+  <si>
+    <t>23658940</t>
+  </si>
+  <si>
+    <t>Perez Sacha Mario</t>
+  </si>
+  <si>
+    <t>44333359</t>
+  </si>
+  <si>
+    <t>Lopez Tavara Luis Alberto</t>
+  </si>
+  <si>
+    <t>41305408</t>
+  </si>
+  <si>
+    <t>Garay Moya Cimiona</t>
+  </si>
+  <si>
+    <t>80056360</t>
+  </si>
+  <si>
+    <t>Clemente Javier Magdalena</t>
+  </si>
+  <si>
+    <t>41504292</t>
+  </si>
+  <si>
+    <t>Quichca Sedano Lidia Lorenza</t>
+  </si>
+  <si>
+    <t>20022585</t>
+  </si>
+  <si>
+    <t>Huamali Osorio Pawel Saul</t>
+  </si>
+  <si>
+    <t>42902564</t>
+  </si>
+  <si>
+    <t>Navarro Soriano Katterine Andrea</t>
+  </si>
+  <si>
+    <t>71278840</t>
+  </si>
+  <si>
+    <t>Casas Agreda Madeline</t>
+  </si>
+  <si>
+    <t>80020598</t>
+  </si>
+  <si>
+    <t>Ortega Porras Luz Mery</t>
+  </si>
+  <si>
+    <t>43304015</t>
+  </si>
+  <si>
+    <t>Rosales Huarocc Rocio Jaquelin</t>
+  </si>
+  <si>
+    <t>43634800</t>
+  </si>
+  <si>
+    <t>Vila Garcia Vidal</t>
+  </si>
+  <si>
+    <t>44047645</t>
+  </si>
+  <si>
+    <t>Espinoza Hidalgo Maribel Luz</t>
+  </si>
+  <si>
+    <t>21285708</t>
+  </si>
+  <si>
+    <t>Jurado Ramos Alberto Angel</t>
+  </si>
+  <si>
+    <t>19828302</t>
+  </si>
+  <si>
+    <t>Vilcahuaman Camargo Carmen Rosa</t>
+  </si>
+  <si>
+    <t>20096755</t>
+  </si>
+  <si>
+    <t>Trujillo Barrueta Rosa Adina</t>
+  </si>
+  <si>
+    <t>46014040</t>
+  </si>
+  <si>
+    <t>Grabiel Martinez Franklin</t>
+  </si>
+  <si>
+    <t>47024442</t>
+  </si>
+  <si>
+    <t>Garcia Aroni Leonarda</t>
+  </si>
+  <si>
+    <t>23241249</t>
+  </si>
+  <si>
+    <t>Ventura Cepida Jonathan</t>
+  </si>
+  <si>
+    <t>71218177</t>
+  </si>
+  <si>
+    <t>Meza Barja Richard Eusebio</t>
+  </si>
+  <si>
+    <t>45879264</t>
+  </si>
+  <si>
+    <t>Moran Chavez Fredy Nozar</t>
+  </si>
+  <si>
+    <t>23272676</t>
+  </si>
+  <si>
+    <t>Aguilar Quinto Leon Dionicio</t>
+  </si>
+  <si>
+    <t>20116006</t>
+  </si>
+  <si>
+    <t>Enriquez Quispe Maria Jesus</t>
+  </si>
+  <si>
+    <t>23266275</t>
+  </si>
+  <si>
+    <t>Cabezas Sanchez Elizabeth Leonor</t>
+  </si>
+  <si>
+    <t>47565793</t>
+  </si>
+  <si>
+    <t>Rivera Huaman Betty</t>
+  </si>
+  <si>
+    <t>45904039</t>
+  </si>
+  <si>
+    <t>Unsihuay Lizano Maura</t>
+  </si>
+  <si>
+    <t>19910227</t>
+  </si>
+  <si>
+    <t>Moran Villegas Jose Miguel</t>
+  </si>
+  <si>
+    <t>44757811</t>
+  </si>
+  <si>
+    <t>Rojas Espinoza Manuel Alfredo</t>
+  </si>
+  <si>
+    <t>19910881</t>
+  </si>
+  <si>
+    <t>Gavilan Rojas Alfredo</t>
+  </si>
+  <si>
+    <t>20025406</t>
+  </si>
+  <si>
+    <t>Ledezma Suasnabar Fredy</t>
+  </si>
+  <si>
+    <t>48181001</t>
+  </si>
+  <si>
+    <t>Ochoa Espinoza Victor Hugo</t>
+  </si>
+  <si>
+    <t>42490232</t>
+  </si>
+  <si>
+    <t>Lima Paraguay Samuel</t>
+  </si>
+  <si>
+    <t>71408859</t>
+  </si>
+  <si>
+    <t>Herrera Zuasnabar Karen</t>
+  </si>
+  <si>
+    <t>44127985</t>
+  </si>
+  <si>
+    <t>De La Cruz Yauricaza Medalid Yina</t>
+  </si>
+  <si>
+    <t>71440241</t>
+  </si>
+  <si>
+    <t>Surichaqui Huallpacusi Vilma</t>
+  </si>
+  <si>
+    <t>19987272</t>
+  </si>
+  <si>
+    <t>Quispe Paucar Oscar Eber</t>
+  </si>
+  <si>
+    <t>41118181</t>
+  </si>
+  <si>
+    <t>Pari Jurado Nelson</t>
+  </si>
+  <si>
+    <t>46831758</t>
+  </si>
+  <si>
+    <t>Peñares Ramos Danny Wilmer</t>
+  </si>
+  <si>
+    <t>40080093</t>
+  </si>
+  <si>
+    <t>Soto Vergara Paulino</t>
+  </si>
+  <si>
+    <t>40723427</t>
+  </si>
+  <si>
+    <t>Ortiz Espinoza Juan Carlos</t>
+  </si>
+  <si>
+    <t>22288871</t>
+  </si>
+  <si>
+    <t>Meza Quispe Josefina</t>
+  </si>
+  <si>
+    <t>23275112</t>
+  </si>
+  <si>
+    <t>Huaman Huaranca Ana Maria</t>
+  </si>
+  <si>
+    <t>42335975</t>
+  </si>
+  <si>
+    <t>Licapa Galvan Luzmila</t>
+  </si>
+  <si>
+    <t>25627859</t>
+  </si>
+  <si>
+    <t>Paucar Roca Elmer Paul</t>
+  </si>
+  <si>
+    <t>43165064</t>
+  </si>
+  <si>
+    <t>Carmona Barreto Wendy Mayume</t>
+  </si>
+  <si>
+    <t>74156732</t>
+  </si>
+  <si>
+    <t>Ortiz Ñahui Juan</t>
+  </si>
+  <si>
+    <t>23715099</t>
+  </si>
+  <si>
+    <t>Beraun Ayala Norma</t>
+  </si>
+  <si>
+    <t>48378508</t>
+  </si>
+  <si>
+    <t>De La Cruz Ayuque Felisa</t>
+  </si>
+  <si>
+    <t>41162357</t>
+  </si>
+  <si>
+    <t>Clemente Romero Joel</t>
+  </si>
+  <si>
+    <t>70279266</t>
+  </si>
+  <si>
+    <t>Mescua Flores Yessica  Evelin</t>
+  </si>
+  <si>
+    <t>42143372</t>
+  </si>
+  <si>
+    <t>Zegarra Ore Cinthia Elizabeth</t>
+  </si>
+  <si>
+    <t>41747115</t>
+  </si>
+  <si>
+    <t>Gonzales Mendoza Justina Jhanneth</t>
+  </si>
+  <si>
+    <t>20041058</t>
+  </si>
+  <si>
+    <t>Castañeda Unsihuay Karen Melisa</t>
+  </si>
+  <si>
+    <t>70143922</t>
+  </si>
+  <si>
+    <t>Socualaya Gomez Victoria Gloria</t>
+  </si>
+  <si>
+    <t>19848618</t>
+  </si>
+  <si>
+    <t>Ureta Ventocilla Elifia</t>
+  </si>
+  <si>
+    <t>25409866</t>
+  </si>
+  <si>
+    <t>Rojas Paz Doris Angelica</t>
+  </si>
+  <si>
+    <t>20074164</t>
+  </si>
+  <si>
+    <t>Quispe Gonzales Raul</t>
+  </si>
+  <si>
+    <t>44624749</t>
+  </si>
+  <si>
+    <t>Colonio Toscano Mariluz Mayumi</t>
+  </si>
+  <si>
+    <t>47112144</t>
+  </si>
+  <si>
+    <t>Arce Solano Karina Liliam</t>
+  </si>
+  <si>
+    <t>47653042</t>
+  </si>
+  <si>
+    <t>Venegas Ponce Sheily Geovanna</t>
+  </si>
+  <si>
+    <t>71276853</t>
+  </si>
+  <si>
+    <t>Limaylla Garcia Deciderio Jonas</t>
+  </si>
+  <si>
+    <t>19870755</t>
+  </si>
+  <si>
+    <t>Gonzalez Herrera Rosa Luz</t>
+  </si>
+  <si>
+    <t>42456848</t>
+  </si>
+  <si>
+    <t>Tolentino Cerron Roberto Carlos</t>
+  </si>
+  <si>
+    <t>40246276</t>
+  </si>
+  <si>
+    <t>Condori Taipe Eduardo</t>
+  </si>
+  <si>
+    <t>40723913</t>
+  </si>
+  <si>
+    <t>Yaranga Amancay Teresa Graciela</t>
+  </si>
+  <si>
+    <t>45566124</t>
+  </si>
+  <si>
+    <t>Cusiche Ccaccaicucho Marcial</t>
+  </si>
+  <si>
+    <t>80683296</t>
+  </si>
+  <si>
+    <t>Matos Aquino Delia Juana</t>
+  </si>
+  <si>
+    <t>23715065</t>
+  </si>
+  <si>
+    <t>Javier Suarez Amador</t>
+  </si>
+  <si>
+    <t>42797164</t>
+  </si>
+  <si>
+    <t>Huanay Torres Joser Junior</t>
+  </si>
+  <si>
+    <t>77056100</t>
+  </si>
+  <si>
+    <t>Camasca Rojas Florinda</t>
+  </si>
+  <si>
+    <t>47241018</t>
+  </si>
+  <si>
+    <t>Casaretto Asto Enrique</t>
+  </si>
+  <si>
+    <t>10253788</t>
+  </si>
+  <si>
+    <t>Trucios Yaranga Juan</t>
+  </si>
+  <si>
+    <t>23660471</t>
+  </si>
+  <si>
+    <t>Vasquez Alonzo Yessenia Cinthia</t>
+  </si>
+  <si>
+    <t>48510707</t>
+  </si>
+  <si>
+    <t>Huaman Espinoza Elber</t>
+  </si>
+  <si>
+    <t>44875905</t>
+  </si>
+  <si>
+    <t>Araujo Benancio Jharelyn Wendy</t>
+  </si>
+  <si>
+    <t>70191156</t>
+  </si>
+  <si>
+    <t>Berrospi Roque Hermelinda</t>
+  </si>
+  <si>
+    <t>19908795</t>
+  </si>
+  <si>
+    <t>Illesca Ñahui Luis Felipe</t>
+  </si>
+  <si>
+    <t>77015372</t>
+  </si>
+  <si>
+    <t>Diaz Quispe Piero</t>
+  </si>
+  <si>
+    <t>71318629</t>
+  </si>
+  <si>
+    <t>Tuanama Isuiza Croi</t>
+  </si>
+  <si>
+    <t>42921748</t>
+  </si>
+  <si>
+    <t>Huaman Ticllacuri Liz Beth</t>
+  </si>
+  <si>
+    <t>42651431</t>
+  </si>
+  <si>
+    <t>Chavez Palomino Ivan</t>
+  </si>
+  <si>
+    <t>45932211</t>
+  </si>
+  <si>
+    <t>Almonacid Garcia Andi David</t>
+  </si>
+  <si>
+    <t>45570347</t>
+  </si>
+  <si>
+    <t>Peres Chancha Orfelinda Cristina</t>
+  </si>
+  <si>
+    <t>45285743</t>
+  </si>
+  <si>
+    <t>Quispe Quispe Gerson Javier</t>
+  </si>
+  <si>
+    <t>48243261</t>
+  </si>
+  <si>
+    <t>Mendoza Peña Zenaida</t>
+  </si>
+  <si>
+    <t>43697402</t>
+  </si>
+  <si>
+    <t>Palacios Barreto Angela Jhanet</t>
+  </si>
+  <si>
+    <t>74312347</t>
+  </si>
+  <si>
+    <t>Sobrado Murga Ener Josme</t>
+  </si>
+  <si>
+    <t>44584249</t>
+  </si>
+  <si>
+    <t>Gutierrez Huaman Antonia Beatriz</t>
+  </si>
+  <si>
+    <t>23561708</t>
+  </si>
+  <si>
+    <t>Fernandez Ariste Raysa Yamedith</t>
+  </si>
+  <si>
+    <t>73614405</t>
+  </si>
+  <si>
+    <t>Avellaneda Ramos Yasmina</t>
+  </si>
+  <si>
+    <t>20069839</t>
+  </si>
+  <si>
+    <t>Ramos Condor Trinidad Eulalia</t>
+  </si>
+  <si>
+    <t>19884485</t>
+  </si>
+  <si>
+    <t>Gomez Chancasananpa Odon</t>
+  </si>
+  <si>
+    <t>20059214</t>
+  </si>
+  <si>
+    <t>Espinoza Ccanto Ana</t>
+  </si>
+  <si>
+    <t>47284594</t>
+  </si>
+  <si>
+    <t>Huaman Vilca Mario</t>
+  </si>
+  <si>
+    <t>23207249</t>
+  </si>
+  <si>
+    <t>Cayetano Huaman Betty Maria</t>
+  </si>
+  <si>
+    <t>23549879</t>
+  </si>
+  <si>
+    <t>Colques Ccorahua Moises</t>
+  </si>
+  <si>
+    <t>48048850</t>
+  </si>
+  <si>
+    <t>Crisostomo De La Cruz Nancy Yaneth</t>
+  </si>
+  <si>
+    <t>44674832</t>
+  </si>
+  <si>
+    <t>Sanchez Evangelista July</t>
+  </si>
+  <si>
+    <t>47190837</t>
+  </si>
+  <si>
+    <t>Rodriguez Carbajal Fredy Alfredo</t>
+  </si>
+  <si>
+    <t>41255571</t>
+  </si>
+  <si>
+    <t>Orellana Macha Jhoana Jessica</t>
+  </si>
+  <si>
+    <t>46662993</t>
+  </si>
+  <si>
+    <t>Porras Condor Celia</t>
+  </si>
+  <si>
+    <t>20093962</t>
+  </si>
+  <si>
+    <t>Ramos Ninamango Ana Maria</t>
+  </si>
+  <si>
+    <t>20028495</t>
+  </si>
+  <si>
+    <t>Belito Sanchez Lucila Sonia</t>
+  </si>
+  <si>
+    <t>20111490</t>
+  </si>
+  <si>
+    <t>Ruiz Calderon Olga Feliciana</t>
+  </si>
+  <si>
+    <t>40144072</t>
+  </si>
+  <si>
+    <t>Salvatierra Quispe Eucario</t>
+  </si>
+  <si>
+    <t>20091569</t>
+  </si>
+  <si>
+    <t>Clemente Ramos Cleyber Abimael</t>
+  </si>
+  <si>
+    <t>70913846</t>
+  </si>
+  <si>
+    <t>Olarte Pari Delia</t>
+  </si>
+  <si>
+    <t>25320275</t>
+  </si>
+  <si>
+    <t>Matamoros Apacclla Julisa</t>
+  </si>
+  <si>
+    <t>76399785</t>
+  </si>
+  <si>
+    <t>Illanes Gaspar Celedonia</t>
+  </si>
+  <si>
+    <t>23274928</t>
+  </si>
+  <si>
+    <t>Sanchez Ugarte Fabiola Nathaly</t>
+  </si>
+  <si>
+    <t>48795370</t>
+  </si>
+  <si>
+    <t>Mallqui Carhuallanqui Edwin Alcides</t>
+  </si>
+  <si>
+    <t>20035620</t>
+  </si>
+  <si>
+    <t>Ruiz De Jurado Rosa Aurora</t>
+  </si>
+  <si>
+    <t>23259568</t>
+  </si>
+  <si>
+    <t>Lizana De Huaman Mercedes</t>
+  </si>
+  <si>
+    <t>23258858</t>
+  </si>
+  <si>
+    <t>Amorin Matamoros Elizabeth</t>
+  </si>
+  <si>
+    <t>76958376</t>
+  </si>
+  <si>
+    <t>Almonacid Caballero Janeth Astrid</t>
+  </si>
+  <si>
+    <t>09634055</t>
+  </si>
+  <si>
+    <t>Poma De Valencia Carmela</t>
+  </si>
+  <si>
+    <t>23206045</t>
+  </si>
+  <si>
+    <t>Fernandez De La Cruz Lia Victoria</t>
+  </si>
+  <si>
+    <t>72007597</t>
+  </si>
+  <si>
+    <t>Zuñiga Quispe Victor</t>
+  </si>
+  <si>
+    <t>23645938</t>
+  </si>
+  <si>
+    <t>Quispe Gonzales Franklin Dawns</t>
+  </si>
+  <si>
+    <t>47594656</t>
+  </si>
+  <si>
+    <t>Blanco Laureano Jesus Ovando</t>
+  </si>
+  <si>
+    <t>40178878</t>
+  </si>
+  <si>
+    <t>Safora Untiveros Yone Miguel</t>
+  </si>
+  <si>
+    <t>80519254</t>
+  </si>
+  <si>
+    <t>Huaman Ramos Giovana</t>
+  </si>
+  <si>
+    <t>40635972</t>
+  </si>
+  <si>
+    <t>Alcedo Huaman Susy Yulisa</t>
+  </si>
+  <si>
+    <t>76331517</t>
+  </si>
+  <si>
+    <t>Gomez Baltazar Gian Marco</t>
+  </si>
+  <si>
+    <t>47974301</t>
+  </si>
+  <si>
+    <t>Tinoco Chumbes Patricia Marisol</t>
+  </si>
+  <si>
+    <t>23271714</t>
+  </si>
+  <si>
+    <t>Ramos Machuca Yesenia Hermosa</t>
+  </si>
+  <si>
+    <t>45870735</t>
+  </si>
+  <si>
+    <t>Meza Quispe Pool Alejandro</t>
+  </si>
+  <si>
+    <t>74253737</t>
+  </si>
+  <si>
+    <t>Limaylla Gamarra Derlys Aerley</t>
+  </si>
+  <si>
+    <t>75883431</t>
+  </si>
+  <si>
+    <t>Perez Rivas Yuri Flinder</t>
+  </si>
+  <si>
+    <t>47848717</t>
   </si>
 </sst>
 </file>
@@ -7182,10 +8016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H426"/>
+  <dimension ref="A1:H505"/>
   <sheetViews>
-    <sheetView topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="A417" sqref="A417"/>
+    <sheetView topLeftCell="A491" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B497" sqref="B497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -18317,381 +19151,2514 @@
       </c>
     </row>
     <row r="413" spans="1:8">
-      <c r="A413" s="6">
+      <c r="A413" s="1">
         <v>448</v>
       </c>
-      <c r="B413" s="6" t="s">
+      <c r="B413" s="1" t="s">
         <v>2207</v>
       </c>
-      <c r="C413" s="6" t="s">
+      <c r="C413" s="1" t="s">
         <v>2208</v>
       </c>
-      <c r="D413" s="6">
+      <c r="D413" s="1">
         <v>114.40677966101696</v>
       </c>
-      <c r="E413" s="15">
-        <f t="shared" ref="E413:E426" si="9">(D413*0.18)+D413</f>
+      <c r="E413" s="2">
+        <f t="shared" ref="E413:E448" si="9">(D413*0.18)+D413</f>
         <v>135</v>
       </c>
-      <c r="F413" s="17">
-        <v>1</v>
-      </c>
-      <c r="G413" s="17" t="s">
+      <c r="F413" s="12">
+        <v>1</v>
+      </c>
+      <c r="G413" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H413" s="18">
+      <c r="H413" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="414" spans="1:8">
-      <c r="A414" s="6">
+      <c r="A414" s="1">
         <v>449</v>
       </c>
-      <c r="B414" s="6" t="s">
+      <c r="B414" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C414" s="6" t="s">
+      <c r="C414" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="D414" s="6">
+      <c r="D414" s="1">
         <v>94.915254237288138</v>
       </c>
-      <c r="E414" s="15">
+      <c r="E414" s="2">
         <f t="shared" si="9"/>
         <v>112</v>
       </c>
-      <c r="F414" s="17">
-        <v>1</v>
-      </c>
-      <c r="G414" s="17" t="s">
+      <c r="F414" s="12">
+        <v>1</v>
+      </c>
+      <c r="G414" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H414" s="18">
+      <c r="H414" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="415" spans="1:8">
-      <c r="A415" s="6">
+      <c r="A415" s="1">
         <v>450</v>
       </c>
-      <c r="B415" s="6" t="s">
+      <c r="B415" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="C415" s="6" t="s">
+      <c r="C415" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="D415" s="6">
+      <c r="D415" s="1">
         <v>25.423728813559322</v>
       </c>
-      <c r="E415" s="15">
+      <c r="E415" s="2">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="F415" s="17">
-        <v>1</v>
-      </c>
-      <c r="G415" s="17" t="s">
+      <c r="F415" s="12">
+        <v>1</v>
+      </c>
+      <c r="G415" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H415" s="18">
+      <c r="H415" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="416" spans="1:8">
-      <c r="A416" s="6">
+      <c r="A416" s="1">
         <v>451</v>
       </c>
-      <c r="B416" s="6" t="s">
+      <c r="B416" s="1" t="s">
         <v>2209</v>
       </c>
-      <c r="C416" s="6" t="s">
+      <c r="C416" s="1" t="s">
         <v>2210</v>
       </c>
-      <c r="D416" s="6">
+      <c r="D416" s="1">
         <v>59.661016949152547</v>
       </c>
-      <c r="E416" s="15">
+      <c r="E416" s="2">
         <f t="shared" si="9"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="F416" s="17">
-        <v>1</v>
-      </c>
-      <c r="G416" s="17" t="s">
+      <c r="F416" s="12">
+        <v>1</v>
+      </c>
+      <c r="G416" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H416" s="18">
+      <c r="H416" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="417" spans="1:8">
-      <c r="A417" s="6">
+      <c r="A417" s="1">
         <v>452</v>
       </c>
-      <c r="B417" s="6" t="s">
+      <c r="B417" s="1" t="s">
         <v>2211</v>
       </c>
-      <c r="C417" s="6" t="s">
+      <c r="C417" s="1" t="s">
         <v>2212</v>
       </c>
-      <c r="D417" s="6">
+      <c r="D417" s="1">
         <v>69.915254237288138</v>
       </c>
-      <c r="E417" s="15">
+      <c r="E417" s="2">
         <f t="shared" si="9"/>
         <v>82.5</v>
       </c>
-      <c r="F417" s="17">
-        <v>1</v>
-      </c>
-      <c r="G417" s="17" t="s">
+      <c r="F417" s="12">
+        <v>1</v>
+      </c>
+      <c r="G417" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H417" s="18">
+      <c r="H417" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="418" spans="1:8">
-      <c r="A418" s="6">
+      <c r="A418" s="1">
         <v>453</v>
       </c>
-      <c r="B418" s="6" t="s">
+      <c r="B418" s="1" t="s">
         <v>2213</v>
       </c>
-      <c r="C418" s="6" t="s">
+      <c r="C418" s="1" t="s">
         <v>2214</v>
       </c>
-      <c r="D418" s="6">
+      <c r="D418" s="1">
         <v>24.067796610169491</v>
       </c>
-      <c r="E418" s="15">
+      <c r="E418" s="2">
         <f t="shared" si="9"/>
         <v>28.4</v>
       </c>
-      <c r="F418" s="17">
-        <v>1</v>
-      </c>
-      <c r="G418" s="17" t="s">
+      <c r="F418" s="12">
+        <v>1</v>
+      </c>
+      <c r="G418" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H418" s="18">
+      <c r="H418" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="419" spans="1:8">
-      <c r="A419" s="6">
+      <c r="A419" s="1">
         <v>454</v>
       </c>
-      <c r="B419" s="6" t="s">
+      <c r="B419" s="1" t="s">
         <v>2215</v>
       </c>
-      <c r="C419" s="6" t="s">
+      <c r="C419" s="1" t="s">
         <v>2216</v>
       </c>
-      <c r="D419" s="6">
+      <c r="D419" s="1">
         <v>68.474576271186436</v>
       </c>
-      <c r="E419" s="15">
+      <c r="E419" s="2">
         <f t="shared" si="9"/>
         <v>80.8</v>
       </c>
-      <c r="F419" s="17">
-        <v>1</v>
-      </c>
-      <c r="G419" s="17" t="s">
+      <c r="F419" s="12">
+        <v>1</v>
+      </c>
+      <c r="G419" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H419" s="18">
+      <c r="H419" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="420" spans="1:8">
-      <c r="A420" s="6">
+      <c r="A420" s="1">
         <v>455</v>
       </c>
-      <c r="B420" s="6" t="s">
+      <c r="B420" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="C420" s="6" t="s">
+      <c r="C420" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="D420" s="6">
+      <c r="D420" s="1">
         <v>114.40677966101696</v>
       </c>
-      <c r="E420" s="15">
+      <c r="E420" s="2">
         <f t="shared" si="9"/>
         <v>135</v>
       </c>
-      <c r="F420" s="17">
-        <v>1</v>
-      </c>
-      <c r="G420" s="17" t="s">
+      <c r="F420" s="12">
+        <v>1</v>
+      </c>
+      <c r="G420" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H420" s="18">
+      <c r="H420" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="421" spans="1:8">
-      <c r="A421" s="6">
+      <c r="A421" s="1">
         <v>456</v>
       </c>
-      <c r="B421" s="6" t="s">
+      <c r="B421" s="1" t="s">
         <v>2217</v>
       </c>
-      <c r="C421" s="6" t="s">
+      <c r="C421" s="1" t="s">
         <v>2218</v>
       </c>
-      <c r="D421" s="6">
+      <c r="D421" s="1">
         <v>274.57627118644069</v>
       </c>
-      <c r="E421" s="15">
+      <c r="E421" s="2">
         <f t="shared" si="9"/>
         <v>324</v>
       </c>
-      <c r="F421" s="17">
-        <v>1</v>
-      </c>
-      <c r="G421" s="17" t="s">
+      <c r="F421" s="12">
+        <v>1</v>
+      </c>
+      <c r="G421" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H421" s="18">
+      <c r="H421" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="422" spans="1:8">
-      <c r="A422" s="6">
+      <c r="A422" s="1">
         <v>457</v>
       </c>
-      <c r="B422" s="6" t="s">
+      <c r="B422" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C422" s="6" t="s">
+      <c r="C422" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D422" s="6">
+      <c r="D422" s="1">
         <v>33.898305084745765</v>
       </c>
-      <c r="E422" s="15">
+      <c r="E422" s="2">
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
-      <c r="F422" s="17">
-        <v>1</v>
-      </c>
-      <c r="G422" s="17" t="s">
+      <c r="F422" s="12">
+        <v>1</v>
+      </c>
+      <c r="G422" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H422" s="18">
+      <c r="H422" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="423" spans="1:8">
-      <c r="A423" s="6">
+      <c r="A423" s="1">
         <v>458</v>
       </c>
-      <c r="B423" s="6" t="s">
+      <c r="B423" s="1" t="s">
         <v>2219</v>
       </c>
-      <c r="C423" s="6" t="s">
+      <c r="C423" s="1" t="s">
         <v>2220</v>
       </c>
-      <c r="D423" s="6">
+      <c r="D423" s="1">
         <v>105.93220338983052</v>
       </c>
-      <c r="E423" s="15">
+      <c r="E423" s="2">
         <f t="shared" si="9"/>
         <v>125.00000000000001</v>
       </c>
-      <c r="F423" s="17">
-        <v>1</v>
-      </c>
-      <c r="G423" s="17" t="s">
+      <c r="F423" s="12">
+        <v>1</v>
+      </c>
+      <c r="G423" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H423" s="18">
+      <c r="H423" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="424" spans="1:8">
-      <c r="A424" s="6">
+      <c r="A424" s="1">
         <v>459</v>
       </c>
-      <c r="B424" s="6" t="s">
+      <c r="B424" s="1" t="s">
         <v>2221</v>
       </c>
-      <c r="C424" s="6" t="s">
+      <c r="C424" s="1" t="s">
         <v>2222</v>
       </c>
-      <c r="D424" s="6">
+      <c r="D424" s="1">
         <v>35.593220338983052</v>
       </c>
-      <c r="E424" s="15">
+      <c r="E424" s="2">
         <f t="shared" si="9"/>
         <v>42</v>
       </c>
-      <c r="F424" s="17">
-        <v>1</v>
-      </c>
-      <c r="G424" s="17" t="s">
+      <c r="F424" s="12">
+        <v>1</v>
+      </c>
+      <c r="G424" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H424" s="18">
+      <c r="H424" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="425" spans="1:8">
-      <c r="A425" s="6">
+      <c r="A425" s="1">
         <v>460</v>
       </c>
-      <c r="B425" s="6" t="s">
+      <c r="B425" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="C425" s="6" t="s">
+      <c r="C425" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="D425" s="6">
+      <c r="D425" s="1">
         <v>116.10169491525424</v>
       </c>
-      <c r="E425" s="15">
+      <c r="E425" s="2">
         <f t="shared" si="9"/>
         <v>137</v>
       </c>
-      <c r="F425" s="17">
-        <v>1</v>
-      </c>
-      <c r="G425" s="17" t="s">
+      <c r="F425" s="12">
+        <v>1</v>
+      </c>
+      <c r="G425" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H425" s="18">
+      <c r="H425" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="426" spans="1:8">
-      <c r="A426" s="6">
+      <c r="A426" s="1">
         <v>461</v>
       </c>
-      <c r="B426" s="6" t="s">
+      <c r="B426" s="1" t="s">
         <v>2223</v>
       </c>
-      <c r="C426" s="6" t="s">
+      <c r="C426" s="1" t="s">
         <v>2224</v>
       </c>
-      <c r="D426" s="6">
+      <c r="D426" s="1">
         <v>116.61016949152543</v>
       </c>
-      <c r="E426" s="15">
+      <c r="E426" s="2">
         <f t="shared" si="9"/>
         <v>137.6</v>
       </c>
-      <c r="F426" s="17">
-        <v>1</v>
-      </c>
-      <c r="G426" s="17" t="s">
+      <c r="F426" s="12">
+        <v>1</v>
+      </c>
+      <c r="G426" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H426" s="18">
+      <c r="H426" s="3">
         <v>44628</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8">
+      <c r="A427" s="1">
+        <v>462</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="D427" s="1">
+        <v>83.389830508474589</v>
+      </c>
+      <c r="E427" s="2">
+        <f t="shared" si="9"/>
+        <v>98.40000000000002</v>
+      </c>
+      <c r="F427" s="12">
+        <v>1</v>
+      </c>
+      <c r="G427" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H427" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8">
+      <c r="A428" s="1">
+        <v>463</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D428" s="1">
+        <v>47.881355932203391</v>
+      </c>
+      <c r="E428" s="2">
+        <f t="shared" si="9"/>
+        <v>56.5</v>
+      </c>
+      <c r="F428" s="12">
+        <v>1</v>
+      </c>
+      <c r="G428" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H428" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8">
+      <c r="A429" s="1">
+        <v>464</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="D429" s="1">
+        <v>41.355932203389827</v>
+      </c>
+      <c r="E429" s="2">
+        <f t="shared" si="9"/>
+        <v>48.8</v>
+      </c>
+      <c r="F429" s="12">
+        <v>1</v>
+      </c>
+      <c r="G429" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H429" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8">
+      <c r="A430" s="1">
+        <v>465</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D430" s="1">
+        <v>60.16949152542373</v>
+      </c>
+      <c r="E430" s="2">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="F430" s="12">
+        <v>1</v>
+      </c>
+      <c r="G430" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H430" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8">
+      <c r="A431" s="1">
+        <v>466</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D431" s="1">
+        <v>16.779661016949156</v>
+      </c>
+      <c r="E431" s="2">
+        <f t="shared" si="9"/>
+        <v>19.800000000000004</v>
+      </c>
+      <c r="F431" s="12">
+        <v>1</v>
+      </c>
+      <c r="G431" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H431" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8">
+      <c r="A432" s="1">
+        <v>467</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D432" s="1">
+        <v>59.661016949152547</v>
+      </c>
+      <c r="E432" s="2">
+        <f t="shared" si="9"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="F432" s="12">
+        <v>1</v>
+      </c>
+      <c r="G432" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H432" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8">
+      <c r="A433" s="1">
+        <v>468</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D433" s="1">
+        <v>38.135593220338983</v>
+      </c>
+      <c r="E433" s="2">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="F433" s="12">
+        <v>1</v>
+      </c>
+      <c r="G433" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H433" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8">
+      <c r="A434" s="1">
+        <v>469</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>2258</v>
+      </c>
+      <c r="D434" s="1">
+        <v>222.88135593220341</v>
+      </c>
+      <c r="E434" s="2">
+        <f t="shared" si="9"/>
+        <v>263</v>
+      </c>
+      <c r="F434" s="12">
+        <v>1</v>
+      </c>
+      <c r="G434" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H434" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8">
+      <c r="A435" s="1">
+        <v>470</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D435" s="1">
+        <v>57.627118644067799</v>
+      </c>
+      <c r="E435" s="2">
+        <f t="shared" si="9"/>
+        <v>68</v>
+      </c>
+      <c r="F435" s="12">
+        <v>1</v>
+      </c>
+      <c r="G435" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H435" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8">
+      <c r="A436" s="1">
+        <v>471</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>2287</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="D436" s="1">
+        <v>59.661016949152547</v>
+      </c>
+      <c r="E436" s="2">
+        <f t="shared" si="9"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="F436" s="12">
+        <v>1</v>
+      </c>
+      <c r="G436" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H436" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8">
+      <c r="A437" s="1">
+        <v>472</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="D437" s="1">
+        <v>119.32203389830509</v>
+      </c>
+      <c r="E437" s="2">
+        <f t="shared" si="9"/>
+        <v>140.80000000000001</v>
+      </c>
+      <c r="F437" s="12">
+        <v>1</v>
+      </c>
+      <c r="G437" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H437" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8">
+      <c r="A438" s="1">
+        <v>473</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D438" s="1">
+        <v>32.372881355932208</v>
+      </c>
+      <c r="E438" s="2">
+        <f t="shared" si="9"/>
+        <v>38.200000000000003</v>
+      </c>
+      <c r="F438" s="12">
+        <v>1</v>
+      </c>
+      <c r="G438" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H438" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8">
+      <c r="A439" s="1">
+        <v>474</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D439" s="1">
+        <v>37.79661016949153</v>
+      </c>
+      <c r="E439" s="2">
+        <f t="shared" si="9"/>
+        <v>44.600000000000009</v>
+      </c>
+      <c r="F439" s="12">
+        <v>1</v>
+      </c>
+      <c r="G439" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H439" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8">
+      <c r="A440" s="1">
+        <v>475</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="D440" s="1">
+        <v>38.305084745762713</v>
+      </c>
+      <c r="E440" s="2">
+        <f t="shared" si="9"/>
+        <v>45.2</v>
+      </c>
+      <c r="F440" s="12">
+        <v>1</v>
+      </c>
+      <c r="G440" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H440" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8">
+      <c r="A441" s="1">
+        <v>476</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D441" s="1">
+        <v>39.83050847457627</v>
+      </c>
+      <c r="E441" s="2">
+        <f t="shared" si="9"/>
+        <v>47</v>
+      </c>
+      <c r="F441" s="12">
+        <v>1</v>
+      </c>
+      <c r="G441" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H441" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8">
+      <c r="A442" s="1">
+        <v>477</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D442" s="1">
+        <v>60.16949152542373</v>
+      </c>
+      <c r="E442" s="2">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="F442" s="12">
+        <v>1</v>
+      </c>
+      <c r="G442" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H442" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8">
+      <c r="A443" s="1">
+        <v>478</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D443" s="1">
+        <v>163.05084745762713</v>
+      </c>
+      <c r="E443" s="2">
+        <f t="shared" si="9"/>
+        <v>192.4</v>
+      </c>
+      <c r="F443" s="12">
+        <v>1</v>
+      </c>
+      <c r="G443" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H443" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8">
+      <c r="A444" s="1">
+        <v>479</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>2295</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="D444" s="1">
+        <v>228.81355932203391</v>
+      </c>
+      <c r="E444" s="2">
+        <f t="shared" si="9"/>
+        <v>270</v>
+      </c>
+      <c r="F444" s="12">
+        <v>1</v>
+      </c>
+      <c r="G444" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H444" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8">
+      <c r="A445" s="1">
+        <v>480</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="D445" s="1">
+        <v>183.05084745762713</v>
+      </c>
+      <c r="E445" s="2">
+        <f t="shared" si="9"/>
+        <v>216</v>
+      </c>
+      <c r="F445" s="12">
+        <v>1</v>
+      </c>
+      <c r="G445" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H445" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8">
+      <c r="A446" s="1">
+        <v>481</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D446" s="1">
+        <v>71.186440677966104</v>
+      </c>
+      <c r="E446" s="2">
+        <f t="shared" si="9"/>
+        <v>84</v>
+      </c>
+      <c r="F446" s="12">
+        <v>1</v>
+      </c>
+      <c r="G446" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H446" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8">
+      <c r="A447" s="1">
+        <v>482</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D447" s="1">
+        <v>68.474576271186436</v>
+      </c>
+      <c r="E447" s="2">
+        <f t="shared" si="9"/>
+        <v>80.8</v>
+      </c>
+      <c r="F447" s="12">
+        <v>1</v>
+      </c>
+      <c r="G447" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H447" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8">
+      <c r="A448" s="1">
+        <v>483</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="D448" s="1">
+        <v>35.593220338983052</v>
+      </c>
+      <c r="E448" s="2">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="F448" s="12">
+        <v>1</v>
+      </c>
+      <c r="G448" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H448" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8">
+      <c r="A449" s="1">
+        <v>484</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D449" s="1">
+        <v>69.152542372881356</v>
+      </c>
+      <c r="E449" s="2">
+        <f t="shared" ref="E449:E458" si="10">(D449*0.18)+D449</f>
+        <v>81.599999999999994</v>
+      </c>
+      <c r="F449" s="12">
+        <v>1</v>
+      </c>
+      <c r="G449" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H449" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8">
+      <c r="A450" s="1">
+        <v>485</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D450" s="1">
+        <v>95.33898305084746</v>
+      </c>
+      <c r="E450" s="2">
+        <f t="shared" si="10"/>
+        <v>112.5</v>
+      </c>
+      <c r="F450" s="12">
+        <v>1</v>
+      </c>
+      <c r="G450" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H450" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8">
+      <c r="A451" s="1">
+        <v>486</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D451" s="1">
+        <v>53.389830508474581</v>
+      </c>
+      <c r="E451" s="2">
+        <f t="shared" si="10"/>
+        <v>63.000000000000007</v>
+      </c>
+      <c r="F451" s="12">
+        <v>1</v>
+      </c>
+      <c r="G451" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H451" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8">
+      <c r="A452" s="1">
+        <v>487</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>2334</v>
+      </c>
+      <c r="D452" s="1">
+        <v>177.96610169491527</v>
+      </c>
+      <c r="E452" s="2">
+        <f t="shared" si="10"/>
+        <v>210</v>
+      </c>
+      <c r="F452" s="12">
+        <v>1</v>
+      </c>
+      <c r="G452" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H452" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8">
+      <c r="A453" s="1">
+        <v>488</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>2334</v>
+      </c>
+      <c r="D453" s="1">
+        <v>50.847457627118644</v>
+      </c>
+      <c r="E453" s="2">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="F453" s="12">
+        <v>1</v>
+      </c>
+      <c r="G453" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H453" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8">
+      <c r="A454" s="1">
+        <v>489</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D454" s="1">
+        <v>169.49152542372883</v>
+      </c>
+      <c r="E454" s="2">
+        <f t="shared" si="10"/>
+        <v>200.00000000000003</v>
+      </c>
+      <c r="F454" s="12">
+        <v>1</v>
+      </c>
+      <c r="G454" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H454" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8">
+      <c r="A455" s="1">
+        <v>490</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="D455" s="1">
+        <v>82.711864406779654</v>
+      </c>
+      <c r="E455" s="2">
+        <f t="shared" si="10"/>
+        <v>97.6</v>
+      </c>
+      <c r="F455" s="12">
+        <v>1</v>
+      </c>
+      <c r="G455" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H455" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8">
+      <c r="A456" s="1">
+        <v>491</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D456" s="1">
+        <v>50.847457627118644</v>
+      </c>
+      <c r="E456" s="2">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="F456" s="12">
+        <v>1</v>
+      </c>
+      <c r="G456" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H456" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8">
+      <c r="A457" s="1">
+        <v>492</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D457" s="1">
+        <v>48.135593220338983</v>
+      </c>
+      <c r="E457" s="2">
+        <f t="shared" si="10"/>
+        <v>56.8</v>
+      </c>
+      <c r="F457" s="12">
+        <v>1</v>
+      </c>
+      <c r="G457" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H457" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8">
+      <c r="A458" s="1">
+        <v>493</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D458" s="1">
+        <v>149.15254237288136</v>
+      </c>
+      <c r="E458" s="2">
+        <f t="shared" si="10"/>
+        <v>176</v>
+      </c>
+      <c r="F458" s="12">
+        <v>1</v>
+      </c>
+      <c r="G458" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H458" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8">
+      <c r="A459" s="1">
+        <v>494</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D459" s="1">
+        <v>203.38983050847457</v>
+      </c>
+      <c r="E459" s="2">
+        <f t="shared" ref="E459:E468" si="11">(D459*0.18)+D459</f>
+        <v>240</v>
+      </c>
+      <c r="F459" s="12">
+        <v>1</v>
+      </c>
+      <c r="G459" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H459" s="3">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8">
+      <c r="A460" s="1">
+        <v>495</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D460" s="1">
+        <v>54.915254237288138</v>
+      </c>
+      <c r="E460" s="2">
+        <f t="shared" si="11"/>
+        <v>64.8</v>
+      </c>
+      <c r="F460" s="12">
+        <v>1</v>
+      </c>
+      <c r="G460" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H460" s="3">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8">
+      <c r="A461" s="1">
+        <v>496</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D461" s="1">
+        <v>149.15254237288136</v>
+      </c>
+      <c r="E461" s="2">
+        <f t="shared" si="11"/>
+        <v>176</v>
+      </c>
+      <c r="F461" s="12">
+        <v>1</v>
+      </c>
+      <c r="G461" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H461" s="3">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8">
+      <c r="A462" s="1">
+        <v>497</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="D462" s="1">
+        <v>30.16949152542373</v>
+      </c>
+      <c r="E462" s="2">
+        <f t="shared" si="11"/>
+        <v>35.6</v>
+      </c>
+      <c r="F462" s="12">
+        <v>1</v>
+      </c>
+      <c r="G462" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H462" s="3">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8">
+      <c r="A463" s="1">
+        <v>498</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="D463" s="1">
+        <v>119.32203389830509</v>
+      </c>
+      <c r="E463" s="2">
+        <f t="shared" si="11"/>
+        <v>140.80000000000001</v>
+      </c>
+      <c r="F463" s="12">
+        <v>1</v>
+      </c>
+      <c r="G463" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H463" s="3">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8">
+      <c r="A464" s="1">
+        <v>499</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D464" s="1">
+        <v>25.762711864406779</v>
+      </c>
+      <c r="E464" s="2">
+        <f t="shared" si="11"/>
+        <v>30.4</v>
+      </c>
+      <c r="F464" s="12">
+        <v>1</v>
+      </c>
+      <c r="G464" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H464" s="3">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8">
+      <c r="A465" s="1">
+        <v>500</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D465" s="1">
+        <v>93.220338983050851</v>
+      </c>
+      <c r="E465" s="2">
+        <f t="shared" si="11"/>
+        <v>110</v>
+      </c>
+      <c r="F465" s="12">
+        <v>1</v>
+      </c>
+      <c r="G465" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H465" s="3">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8">
+      <c r="A466" s="1">
+        <v>501</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>2388</v>
+      </c>
+      <c r="D466" s="1">
+        <v>190.67796610169492</v>
+      </c>
+      <c r="E466" s="2">
+        <f t="shared" si="11"/>
+        <v>225</v>
+      </c>
+      <c r="F466" s="12">
+        <v>1</v>
+      </c>
+      <c r="G466" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H466" s="3">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8">
+      <c r="A467" s="1">
+        <v>502</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="D467" s="1">
+        <v>61.016949152542374</v>
+      </c>
+      <c r="E467" s="2">
+        <f t="shared" si="11"/>
+        <v>72</v>
+      </c>
+      <c r="F467" s="12">
+        <v>1</v>
+      </c>
+      <c r="G467" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H467" s="3">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8">
+      <c r="A468" s="1">
+        <v>503</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>2391</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="D468" s="1">
+        <v>78.305084745762727</v>
+      </c>
+      <c r="E468" s="2">
+        <f t="shared" si="11"/>
+        <v>92.40000000000002</v>
+      </c>
+      <c r="F468" s="12">
+        <v>1</v>
+      </c>
+      <c r="G468" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H468" s="3">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8">
+      <c r="A469" s="1">
+        <v>504</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="D469" s="1">
+        <v>59.661016949152547</v>
+      </c>
+      <c r="E469" s="10">
+        <f t="shared" ref="E469:E493" si="12">(D469*0.18)+D469</f>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="F469" s="12">
+        <v>1</v>
+      </c>
+      <c r="G469" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H469" s="3">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8">
+      <c r="A470" s="1">
+        <v>505</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D470" s="1">
+        <v>94.915254237288138</v>
+      </c>
+      <c r="E470" s="10">
+        <f t="shared" si="12"/>
+        <v>112</v>
+      </c>
+      <c r="F470" s="12">
+        <v>1</v>
+      </c>
+      <c r="G470" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H470" s="3">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8">
+      <c r="A471" s="1">
+        <v>506</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="D471" s="1">
+        <v>89.152542372881356</v>
+      </c>
+      <c r="E471" s="10">
+        <f t="shared" si="12"/>
+        <v>105.2</v>
+      </c>
+      <c r="F471" s="12">
+        <v>1</v>
+      </c>
+      <c r="G471" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H471" s="3">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8">
+      <c r="A472" s="1">
+        <v>507</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D472" s="1">
+        <v>183.5593220338983</v>
+      </c>
+      <c r="E472" s="10">
+        <f t="shared" si="12"/>
+        <v>216.6</v>
+      </c>
+      <c r="F472" s="12">
+        <v>1</v>
+      </c>
+      <c r="G472" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H472" s="3">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8">
+      <c r="A473" s="1">
+        <v>508</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D473" s="1">
+        <v>59.661016949152547</v>
+      </c>
+      <c r="E473" s="10">
+        <f t="shared" si="12"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="F473" s="12">
+        <v>1</v>
+      </c>
+      <c r="G473" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H473" s="3">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8">
+      <c r="A474" s="1">
+        <v>509</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D474" s="1">
+        <v>119.32203389830509</v>
+      </c>
+      <c r="E474" s="10">
+        <f t="shared" si="12"/>
+        <v>140.80000000000001</v>
+      </c>
+      <c r="F474" s="12">
+        <v>1</v>
+      </c>
+      <c r="G474" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H474" s="3">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8">
+      <c r="A475" s="1">
+        <v>510</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D475" s="1">
+        <v>61.355932203389841</v>
+      </c>
+      <c r="E475" s="10">
+        <f t="shared" si="12"/>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="F475" s="12">
+        <v>1</v>
+      </c>
+      <c r="G475" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H475" s="3">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8">
+      <c r="A476" s="1">
+        <v>511</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="D476" s="1">
+        <v>50.847457627118644</v>
+      </c>
+      <c r="E476" s="10">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="F476" s="12">
+        <v>1</v>
+      </c>
+      <c r="G476" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H476" s="3">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8">
+      <c r="A477" s="1">
+        <v>512</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D477" s="1">
+        <v>25.423728813559322</v>
+      </c>
+      <c r="E477" s="10">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="F477" s="12">
+        <v>1</v>
+      </c>
+      <c r="G477" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H477" s="3">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8">
+      <c r="A478" s="1">
+        <v>513</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D478" s="1">
+        <v>149.15254237288136</v>
+      </c>
+      <c r="E478" s="10">
+        <f t="shared" si="12"/>
+        <v>176</v>
+      </c>
+      <c r="F478" s="12">
+        <v>1</v>
+      </c>
+      <c r="G478" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H478" s="3">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8">
+      <c r="A479" s="1">
+        <v>514</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D479" s="1">
+        <v>62.711864406779661</v>
+      </c>
+      <c r="E479" s="10">
+        <f t="shared" si="12"/>
+        <v>74</v>
+      </c>
+      <c r="F479" s="12">
+        <v>1</v>
+      </c>
+      <c r="G479" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H479" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8">
+      <c r="A480" s="1">
+        <v>515</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="D480" s="1">
+        <v>60.16949152542373</v>
+      </c>
+      <c r="E480" s="10">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="F480" s="12">
+        <v>1</v>
+      </c>
+      <c r="G480" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H480" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8">
+      <c r="A481" s="1">
+        <v>516</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D481" s="1">
+        <v>63.559322033898312</v>
+      </c>
+      <c r="E481" s="10">
+        <f t="shared" si="12"/>
+        <v>75</v>
+      </c>
+      <c r="F481" s="12">
+        <v>1</v>
+      </c>
+      <c r="G481" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H481" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8">
+      <c r="A482" s="1">
+        <v>517</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D482" s="1">
+        <v>203.72881355932205</v>
+      </c>
+      <c r="E482" s="10">
+        <f t="shared" si="12"/>
+        <v>240.4</v>
+      </c>
+      <c r="F482" s="12">
+        <v>1</v>
+      </c>
+      <c r="G482" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H482" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8">
+      <c r="A483" s="1">
+        <v>518</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D483" s="1">
+        <v>89.491525423728817</v>
+      </c>
+      <c r="E483" s="10">
+        <f t="shared" si="12"/>
+        <v>105.6</v>
+      </c>
+      <c r="F483" s="12">
+        <v>1</v>
+      </c>
+      <c r="G483" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H483" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8">
+      <c r="A484" s="1">
+        <v>519</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D484" s="1">
+        <v>101.69491525423729</v>
+      </c>
+      <c r="E484" s="10">
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
+      <c r="F484" s="12">
+        <v>1</v>
+      </c>
+      <c r="G484" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H484" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8">
+      <c r="A485" s="1">
+        <v>520</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D485" s="1">
+        <v>17.966101694915256</v>
+      </c>
+      <c r="E485" s="10">
+        <f t="shared" si="12"/>
+        <v>21.200000000000003</v>
+      </c>
+      <c r="F485" s="12">
+        <v>1</v>
+      </c>
+      <c r="G485" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H485" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8">
+      <c r="A486" s="1">
+        <v>521</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D486" s="1">
+        <v>213.89830508474577</v>
+      </c>
+      <c r="E486" s="10">
+        <f t="shared" si="12"/>
+        <v>252.4</v>
+      </c>
+      <c r="F486" s="12">
+        <v>1</v>
+      </c>
+      <c r="G486" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H486" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8">
+      <c r="A487" s="1">
+        <v>522</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D487" s="1">
+        <v>103.05084745762711</v>
+      </c>
+      <c r="E487" s="10">
+        <f t="shared" si="12"/>
+        <v>121.6</v>
+      </c>
+      <c r="F487" s="12">
+        <v>1</v>
+      </c>
+      <c r="G487" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H487" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8">
+      <c r="A488" s="1">
+        <v>523</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D488" s="1">
+        <v>81.694915254237301</v>
+      </c>
+      <c r="E488" s="10">
+        <f t="shared" si="12"/>
+        <v>96.40000000000002</v>
+      </c>
+      <c r="F488" s="12">
+        <v>1</v>
+      </c>
+      <c r="G488" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H488" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8">
+      <c r="A489" s="1">
+        <v>524</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D489" s="1">
+        <v>45.593220338983052</v>
+      </c>
+      <c r="E489" s="10">
+        <f t="shared" si="12"/>
+        <v>53.8</v>
+      </c>
+      <c r="F489" s="12">
+        <v>1</v>
+      </c>
+      <c r="G489" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H489" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8">
+      <c r="A490" s="1">
+        <v>525</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D490" s="1">
+        <v>29.830508474576273</v>
+      </c>
+      <c r="E490" s="10">
+        <f t="shared" si="12"/>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="F490" s="12">
+        <v>1</v>
+      </c>
+      <c r="G490" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H490" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8">
+      <c r="A491" s="1">
+        <v>526</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="D491" s="1">
+        <v>50.847457627118644</v>
+      </c>
+      <c r="E491" s="10">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="F491" s="12">
+        <v>1</v>
+      </c>
+      <c r="G491" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H491" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8">
+      <c r="A492" s="1">
+        <v>527</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="D492" s="1">
+        <v>59.661016949152547</v>
+      </c>
+      <c r="E492" s="10">
+        <f t="shared" si="12"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="F492" s="12">
+        <v>1</v>
+      </c>
+      <c r="G492" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H492" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8">
+      <c r="A493" s="1">
+        <v>528</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="D493" s="1">
+        <v>89.830508474576277</v>
+      </c>
+      <c r="E493" s="10">
+        <f t="shared" si="12"/>
+        <v>106</v>
+      </c>
+      <c r="F493" s="12">
+        <v>1</v>
+      </c>
+      <c r="G493" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H493" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8">
+      <c r="A494" s="1">
+        <v>529</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D494" s="1">
+        <v>228.81355932203391</v>
+      </c>
+      <c r="E494" s="10">
+        <f t="shared" ref="E494:E499" si="13">(D494*0.18)+D494</f>
+        <v>270</v>
+      </c>
+      <c r="F494" s="12">
+        <v>1</v>
+      </c>
+      <c r="G494" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H494" s="3">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8">
+      <c r="A495" s="1">
+        <v>530</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="D495" s="1">
+        <v>101.69491525423729</v>
+      </c>
+      <c r="E495" s="10">
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+      <c r="F495" s="12">
+        <v>1</v>
+      </c>
+      <c r="G495" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H495" s="3">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8">
+      <c r="A496" s="1">
+        <v>531</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D496" s="1">
+        <v>83.389830508474589</v>
+      </c>
+      <c r="E496" s="10">
+        <f t="shared" si="13"/>
+        <v>98.40000000000002</v>
+      </c>
+      <c r="F496" s="12">
+        <v>1</v>
+      </c>
+      <c r="G496" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H496" s="3">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8">
+      <c r="A497" s="1">
+        <v>532</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>2485</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>2486</v>
+      </c>
+      <c r="D497" s="1">
+        <v>178.30508474576271</v>
+      </c>
+      <c r="E497" s="10">
+        <f t="shared" si="13"/>
+        <v>210.4</v>
+      </c>
+      <c r="F497" s="12">
+        <v>1</v>
+      </c>
+      <c r="G497" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H497" s="3">
+        <v>44637</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8">
+      <c r="A498" s="1">
+        <v>533</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="D498" s="1">
+        <v>18.983050847457626</v>
+      </c>
+      <c r="E498" s="10">
+        <f t="shared" si="13"/>
+        <v>22.4</v>
+      </c>
+      <c r="F498" s="12">
+        <v>1</v>
+      </c>
+      <c r="G498" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H498" s="3">
+        <v>44637</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8">
+      <c r="A499" s="1">
+        <v>534</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D499" s="1">
+        <v>72.966101694915253</v>
+      </c>
+      <c r="E499" s="10">
+        <f t="shared" si="13"/>
+        <v>86.1</v>
+      </c>
+      <c r="F499" s="12">
+        <v>1</v>
+      </c>
+      <c r="G499" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H499" s="3">
+        <v>44637</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8">
+      <c r="A500" s="6">
+        <v>535</v>
+      </c>
+      <c r="B500" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="C500" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="D500" s="6">
+        <v>35.593220338983052</v>
+      </c>
+      <c r="E500" s="19">
+        <f t="shared" ref="E500:E505" si="14">(D500*0.18)+D500</f>
+        <v>42</v>
+      </c>
+      <c r="F500" s="17">
+        <v>1</v>
+      </c>
+      <c r="G500" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H500" s="18">
+        <v>44638</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8">
+      <c r="A501" s="6">
+        <v>536</v>
+      </c>
+      <c r="B501" s="6" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C501" s="6" t="s">
+        <v>2508</v>
+      </c>
+      <c r="D501" s="6">
+        <v>114.49152542372882</v>
+      </c>
+      <c r="E501" s="19">
+        <f t="shared" si="14"/>
+        <v>135.1</v>
+      </c>
+      <c r="F501" s="17">
+        <v>1</v>
+      </c>
+      <c r="G501" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H501" s="18">
+        <v>44638</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8">
+      <c r="A502" s="6">
+        <v>537</v>
+      </c>
+      <c r="B502" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="C502" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="D502" s="6">
+        <v>71.186440677966104</v>
+      </c>
+      <c r="E502" s="19">
+        <f t="shared" si="14"/>
+        <v>84</v>
+      </c>
+      <c r="F502" s="17">
+        <v>1</v>
+      </c>
+      <c r="G502" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H502" s="18">
+        <v>44638</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8">
+      <c r="A503" s="6">
+        <v>538</v>
+      </c>
+      <c r="B503" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C503" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D503" s="6">
+        <v>59.661016949152547</v>
+      </c>
+      <c r="E503" s="19">
+        <f t="shared" si="14"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="F503" s="17">
+        <v>1</v>
+      </c>
+      <c r="G503" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H503" s="18">
+        <v>44638</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8">
+      <c r="A504" s="6">
+        <v>539</v>
+      </c>
+      <c r="B504" s="6" t="s">
+        <v>2509</v>
+      </c>
+      <c r="C504" s="6" t="s">
+        <v>2510</v>
+      </c>
+      <c r="D504" s="6">
+        <v>59.661016949152547</v>
+      </c>
+      <c r="E504" s="19">
+        <f t="shared" si="14"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="F504" s="17">
+        <v>1</v>
+      </c>
+      <c r="G504" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H504" s="18">
+        <v>44638</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8">
+      <c r="A505" s="6">
+        <v>540</v>
+      </c>
+      <c r="B505" s="6" t="s">
+        <v>2511</v>
+      </c>
+      <c r="C505" s="6" t="s">
+        <v>2512</v>
+      </c>
+      <c r="D505" s="6">
+        <v>59.661016949152547</v>
+      </c>
+      <c r="E505" s="19">
+        <f t="shared" si="14"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="F505" s="17">
+        <v>1</v>
+      </c>
+      <c r="G505" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H505" s="18">
+        <v>44638</v>
       </c>
     </row>
   </sheetData>
@@ -18702,10 +21669,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H258"/>
+  <dimension ref="A1:H308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="B255" sqref="B255"/>
+    <sheetView topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="C299" sqref="C299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -25391,7 +28358,7 @@
         <v>91.525423728813564</v>
       </c>
       <c r="E248" s="2">
-        <f t="shared" ref="E248:E258" si="5">(D248*0.18)+D248</f>
+        <f t="shared" ref="E248:E269" si="5">(D248*0.18)+D248</f>
         <v>108</v>
       </c>
       <c r="F248" s="1">
@@ -25486,192 +28453,1542 @@
       </c>
     </row>
     <row r="252" spans="1:8">
-      <c r="A252" s="6">
+      <c r="A252" s="1">
         <v>275</v>
       </c>
-      <c r="B252" s="6" t="s">
+      <c r="B252" s="1" t="s">
         <v>2225</v>
       </c>
-      <c r="C252" s="6" t="s">
+      <c r="C252" s="1" t="s">
         <v>2226</v>
       </c>
-      <c r="D252" s="6">
+      <c r="D252" s="1">
         <v>16.779661016949156</v>
       </c>
-      <c r="E252" s="15">
+      <c r="E252" s="2">
         <f t="shared" si="5"/>
         <v>19.800000000000004</v>
       </c>
-      <c r="F252" s="6">
+      <c r="F252" s="1">
         <v>2</v>
       </c>
-      <c r="G252" s="6" t="s">
+      <c r="G252" s="1" t="s">
         <v>1720</v>
       </c>
-      <c r="H252" s="18">
+      <c r="H252" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="253" spans="1:8">
-      <c r="A253" s="6">
+      <c r="A253" s="1">
         <v>276</v>
       </c>
-      <c r="B253" s="6" t="s">
+      <c r="B253" s="1" t="s">
         <v>2227</v>
       </c>
-      <c r="C253" s="6" t="s">
+      <c r="C253" s="1" t="s">
         <v>2228</v>
       </c>
-      <c r="D253" s="6">
+      <c r="D253" s="1">
         <v>213.55932203389833</v>
       </c>
-      <c r="E253" s="15">
+      <c r="E253" s="2">
         <f t="shared" si="5"/>
         <v>252.00000000000003</v>
       </c>
-      <c r="F253" s="6">
+      <c r="F253" s="1">
         <v>2</v>
       </c>
-      <c r="G253" s="6" t="s">
+      <c r="G253" s="1" t="s">
         <v>1720</v>
       </c>
-      <c r="H253" s="18">
+      <c r="H253" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="254" spans="1:8">
-      <c r="A254" s="6">
+      <c r="A254" s="1">
         <v>277</v>
       </c>
-      <c r="B254" s="6" t="s">
+      <c r="B254" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C254" s="6" t="s">
+      <c r="C254" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D254" s="6">
+      <c r="D254" s="1">
         <v>254.23728813559325</v>
       </c>
-      <c r="E254" s="15">
+      <c r="E254" s="2">
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
-      <c r="F254" s="6">
+      <c r="F254" s="1">
         <v>2</v>
       </c>
-      <c r="G254" s="6" t="s">
+      <c r="G254" s="1" t="s">
         <v>1720</v>
       </c>
-      <c r="H254" s="18">
+      <c r="H254" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="255" spans="1:8">
-      <c r="A255" s="6">
+      <c r="A255" s="1">
         <v>278</v>
       </c>
-      <c r="B255" s="6" t="s">
+      <c r="B255" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="C255" s="6" t="s">
+      <c r="C255" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="D255" s="6">
+      <c r="D255" s="1">
         <v>88.983050847457633</v>
       </c>
-      <c r="E255" s="15">
+      <c r="E255" s="2">
         <f t="shared" si="5"/>
         <v>105</v>
       </c>
-      <c r="F255" s="6">
+      <c r="F255" s="1">
         <v>2</v>
       </c>
-      <c r="G255" s="6" t="s">
+      <c r="G255" s="1" t="s">
         <v>1720</v>
       </c>
-      <c r="H255" s="18">
+      <c r="H255" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="256" spans="1:8">
-      <c r="A256" s="6">
+      <c r="A256" s="1">
         <v>279</v>
       </c>
-      <c r="B256" s="6" t="s">
+      <c r="B256" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C256" s="6" t="s">
+      <c r="C256" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="D256" s="6">
+      <c r="D256" s="1">
         <v>104.40677966101696</v>
       </c>
-      <c r="E256" s="15">
+      <c r="E256" s="2">
         <f t="shared" si="5"/>
         <v>123.2</v>
       </c>
-      <c r="F256" s="6">
+      <c r="F256" s="1">
         <v>2</v>
       </c>
-      <c r="G256" s="6" t="s">
+      <c r="G256" s="1" t="s">
         <v>1720</v>
       </c>
-      <c r="H256" s="18">
+      <c r="H256" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="257" spans="1:8">
-      <c r="A257" s="6">
+      <c r="A257" s="1">
         <v>280</v>
       </c>
-      <c r="B257" s="6" t="s">
+      <c r="B257" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="C257" s="6" t="s">
+      <c r="C257" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="D257" s="6">
+      <c r="D257" s="1">
         <v>31.779661016949156</v>
       </c>
-      <c r="E257" s="15">
+      <c r="E257" s="2">
         <f t="shared" si="5"/>
         <v>37.5</v>
       </c>
-      <c r="F257" s="6">
+      <c r="F257" s="1">
         <v>2</v>
       </c>
-      <c r="G257" s="6" t="s">
+      <c r="G257" s="1" t="s">
         <v>1720</v>
       </c>
-      <c r="H257" s="18">
+      <c r="H257" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="258" spans="1:8">
-      <c r="A258" s="6">
+      <c r="A258" s="1">
         <v>281</v>
       </c>
-      <c r="B258" s="6" t="s">
+      <c r="B258" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="C258" s="6" t="s">
+      <c r="C258" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="D258" s="6">
+      <c r="D258" s="1">
         <v>92.20338983050847</v>
       </c>
-      <c r="E258" s="15">
+      <c r="E258" s="2">
         <f t="shared" si="5"/>
         <v>108.8</v>
       </c>
-      <c r="F258" s="6">
+      <c r="F258" s="1">
         <v>2</v>
       </c>
-      <c r="G258" s="6" t="s">
+      <c r="G258" s="1" t="s">
         <v>1720</v>
       </c>
-      <c r="H258" s="18">
+      <c r="H258" s="3">
         <v>44628</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" s="1">
+        <v>282</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="D259" s="1">
+        <v>81.355932203389841</v>
+      </c>
+      <c r="E259" s="2">
+        <f t="shared" si="5"/>
+        <v>96.000000000000014</v>
+      </c>
+      <c r="F259" s="1">
+        <v>2</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H259" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" s="1">
+        <v>283</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D260" s="1">
+        <v>76.271186440677965</v>
+      </c>
+      <c r="E260" s="2">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="F260" s="1">
+        <v>2</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H260" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="1">
+        <v>284</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="D261" s="1">
+        <v>38.474576271186443</v>
+      </c>
+      <c r="E261" s="2">
+        <f t="shared" si="5"/>
+        <v>45.400000000000006</v>
+      </c>
+      <c r="F261" s="1">
+        <v>2</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H261" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" s="1">
+        <v>285</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="D262" s="1">
+        <v>305.08474576271186</v>
+      </c>
+      <c r="E262" s="2">
+        <f t="shared" si="5"/>
+        <v>360</v>
+      </c>
+      <c r="F262" s="1">
+        <v>2</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H262" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" s="1">
+        <v>286</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="D263" s="1">
+        <v>13.559322033898306</v>
+      </c>
+      <c r="E263" s="2">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="F263" s="1">
+        <v>2</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H263" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" s="1">
+        <v>287</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="D264" s="1">
+        <v>45.762711864406782</v>
+      </c>
+      <c r="E264" s="2">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="F264" s="1">
+        <v>2</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H264" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="1">
+        <v>288</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="D265" s="1">
+        <v>172.88135593220341</v>
+      </c>
+      <c r="E265" s="2">
+        <f t="shared" si="5"/>
+        <v>204.00000000000003</v>
+      </c>
+      <c r="F265" s="1">
+        <v>2</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H265" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="1">
+        <v>289</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="D266" s="1">
+        <v>15.254237288135593</v>
+      </c>
+      <c r="E266" s="2">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="F266" s="1">
+        <v>2</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H266" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="1">
+        <v>290</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D267" s="1">
+        <v>76.271186440677965</v>
+      </c>
+      <c r="E267" s="2">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="F267" s="1">
+        <v>2</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H267" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="1">
+        <v>291</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D268" s="1">
+        <v>25.423728813559322</v>
+      </c>
+      <c r="E268" s="2">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="F268" s="1">
+        <v>2</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H268" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" s="1">
+        <v>292</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="D269" s="1">
+        <v>25.423728813559322</v>
+      </c>
+      <c r="E269" s="2">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="F269" s="1">
+        <v>2</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H269" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" s="1">
+        <v>293</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="D270" s="1">
+        <v>51.525423728813557</v>
+      </c>
+      <c r="E270" s="2">
+        <f t="shared" ref="E270:E281" si="6">(D270*0.18)+D270</f>
+        <v>60.8</v>
+      </c>
+      <c r="F270" s="1">
+        <v>2</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H270" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" s="1">
+        <v>294</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="D271" s="1">
+        <v>228.81355932203391</v>
+      </c>
+      <c r="E271" s="2">
+        <f t="shared" si="6"/>
+        <v>270</v>
+      </c>
+      <c r="F271" s="1">
+        <v>2</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H271" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" s="1">
+        <v>295</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D272" s="1">
+        <v>50.847457627118644</v>
+      </c>
+      <c r="E272" s="2">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F272" s="1">
+        <v>2</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H272" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" s="1">
+        <v>296</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>2345</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="D273" s="1">
+        <v>101.69491525423729</v>
+      </c>
+      <c r="E273" s="2">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="F273" s="1">
+        <v>2</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H273" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" s="1">
+        <v>297</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>2347</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>2348</v>
+      </c>
+      <c r="D274" s="1">
+        <v>190.67796610169492</v>
+      </c>
+      <c r="E274" s="2">
+        <f t="shared" si="6"/>
+        <v>225</v>
+      </c>
+      <c r="F274" s="1">
+        <v>2</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H274" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" s="1">
+        <v>298</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D275" s="1">
+        <v>101.69491525423729</v>
+      </c>
+      <c r="E275" s="2">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="F275" s="1">
+        <v>2</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H275" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" s="1">
+        <v>299</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D276" s="1">
+        <v>15.254237288135593</v>
+      </c>
+      <c r="E276" s="2">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="F276" s="1">
+        <v>2</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H276" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" s="1">
+        <v>300</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="D277" s="1">
+        <v>127.11864406779662</v>
+      </c>
+      <c r="E277" s="2">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="F277" s="1">
+        <v>2</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H277" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" s="1">
+        <v>301</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D278" s="1">
+        <v>25.423728813559322</v>
+      </c>
+      <c r="E278" s="2">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="F278" s="1">
+        <v>2</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H278" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="1">
+        <v>302</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D279" s="1">
+        <v>30.508474576271187</v>
+      </c>
+      <c r="E279" s="2">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="F279" s="1">
+        <v>2</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H279" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" s="1">
+        <v>303</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D280" s="1">
+        <v>127.11864406779662</v>
+      </c>
+      <c r="E280" s="2">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="F280" s="1">
+        <v>2</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H280" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" s="1">
+        <v>304</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D281" s="1">
+        <v>30.508474576271187</v>
+      </c>
+      <c r="E281" s="2">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="F281" s="1">
+        <v>2</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H281" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" s="1">
+        <v>305</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>2394</v>
+      </c>
+      <c r="D282" s="1">
+        <v>88.983050847457633</v>
+      </c>
+      <c r="E282" s="2">
+        <f t="shared" ref="E282:E283" si="7">(D282*0.18)+D282</f>
+        <v>105</v>
+      </c>
+      <c r="F282" s="1">
+        <v>2</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H282" s="3">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" s="1">
+        <v>306</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D283" s="1">
+        <v>101.69491525423729</v>
+      </c>
+      <c r="E283" s="2">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="F283" s="1">
+        <v>2</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H283" s="3">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" s="1">
+        <v>307</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="D284" s="1">
+        <v>71.186440677966104</v>
+      </c>
+      <c r="E284" s="2">
+        <f t="shared" ref="E284:E286" si="8">(D284*0.18)+D284</f>
+        <v>84</v>
+      </c>
+      <c r="F284" s="1">
+        <v>2</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H284" s="3">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" s="1">
+        <v>308</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D285" s="1">
+        <v>190.67796610169492</v>
+      </c>
+      <c r="E285" s="2">
+        <f t="shared" si="8"/>
+        <v>225</v>
+      </c>
+      <c r="F285" s="1">
+        <v>2</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H285" s="3">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" s="1">
+        <v>309</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D286" s="1">
+        <v>124.57627118644068</v>
+      </c>
+      <c r="E286" s="2">
+        <f t="shared" si="8"/>
+        <v>147</v>
+      </c>
+      <c r="F286" s="1">
+        <v>2</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H286" s="3">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" s="1">
+        <v>310</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="D287" s="1">
+        <v>38.474576271186443</v>
+      </c>
+      <c r="E287" s="2">
+        <f t="shared" ref="E287:E292" si="9">(D287*0.18)+D287</f>
+        <v>45.400000000000006</v>
+      </c>
+      <c r="F287" s="1">
+        <v>2</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H287" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" s="1">
+        <v>311</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="D288" s="1">
+        <v>228.81355932203391</v>
+      </c>
+      <c r="E288" s="2">
+        <f t="shared" si="9"/>
+        <v>270</v>
+      </c>
+      <c r="F288" s="1">
+        <v>2</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H288" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" s="1">
+        <v>312</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D289" s="1">
+        <v>190.67796610169492</v>
+      </c>
+      <c r="E289" s="2">
+        <f t="shared" si="9"/>
+        <v>225</v>
+      </c>
+      <c r="F289" s="1">
+        <v>2</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H289" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" s="1">
+        <v>313</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="D290" s="1">
+        <v>42.372881355932208</v>
+      </c>
+      <c r="E290" s="2">
+        <f t="shared" si="9"/>
+        <v>50.000000000000007</v>
+      </c>
+      <c r="F290" s="1">
+        <v>2</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H290" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" s="1">
+        <v>314</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>2457</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="D291" s="1">
+        <v>183.05084745762713</v>
+      </c>
+      <c r="E291" s="2">
+        <f t="shared" si="9"/>
+        <v>216</v>
+      </c>
+      <c r="F291" s="1">
+        <v>2</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H291" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" s="1">
+        <v>315</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>2459</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>2460</v>
+      </c>
+      <c r="D292" s="1">
+        <v>25.423728813559322</v>
+      </c>
+      <c r="E292" s="2">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="F292" s="1">
+        <v>2</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H292" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" s="1">
+        <v>316</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="D293" s="1">
+        <v>51.525423728813557</v>
+      </c>
+      <c r="E293" s="2">
+        <f t="shared" ref="E293:E296" si="10">(D293*0.18)+D293</f>
+        <v>60.8</v>
+      </c>
+      <c r="F293" s="1">
+        <v>2</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H293" s="3">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" s="1">
+        <v>317</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>2479</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D294" s="1">
+        <v>50.847457627118644</v>
+      </c>
+      <c r="E294" s="2">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="F294" s="1">
+        <v>2</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H294" s="3">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" s="1">
+        <v>318</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D295" s="1">
+        <v>76.440677966101703</v>
+      </c>
+      <c r="E295" s="2">
+        <f t="shared" si="10"/>
+        <v>90.2</v>
+      </c>
+      <c r="F295" s="1">
+        <v>2</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H295" s="3">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" s="1">
+        <v>319</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D296" s="1">
+        <v>114.40677966101696</v>
+      </c>
+      <c r="E296" s="2">
+        <f t="shared" si="10"/>
+        <v>135</v>
+      </c>
+      <c r="F296" s="1">
+        <v>2</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H296" s="3">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" s="1">
+        <v>320</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D297" s="1">
+        <v>60.33898305084746</v>
+      </c>
+      <c r="E297" s="2">
+        <f t="shared" ref="E297:E303" si="11">(D297*0.18)+D297</f>
+        <v>71.2</v>
+      </c>
+      <c r="F297" s="1">
+        <v>2</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H297" s="3">
+        <v>44637</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" s="1">
+        <v>321</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D298" s="1">
+        <v>153.22033898305085</v>
+      </c>
+      <c r="E298" s="2">
+        <f t="shared" si="11"/>
+        <v>180.8</v>
+      </c>
+      <c r="F298" s="1">
+        <v>2</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H298" s="3">
+        <v>44637</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" s="1">
+        <v>322</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>2490</v>
+      </c>
+      <c r="D299" s="1">
+        <v>104.40677966101696</v>
+      </c>
+      <c r="E299" s="2">
+        <f t="shared" si="11"/>
+        <v>123.2</v>
+      </c>
+      <c r="F299" s="1">
+        <v>2</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H299" s="3">
+        <v>44637</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" s="1">
+        <v>323</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D300" s="1">
+        <v>139.83050847457628</v>
+      </c>
+      <c r="E300" s="2">
+        <f t="shared" si="11"/>
+        <v>165</v>
+      </c>
+      <c r="F300" s="1">
+        <v>2</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H300" s="3">
+        <v>44637</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" s="1">
+        <v>324</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>2494</v>
+      </c>
+      <c r="D301" s="1">
+        <v>25.423728813559322</v>
+      </c>
+      <c r="E301" s="2">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="F301" s="1">
+        <v>2</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H301" s="3">
+        <v>44637</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" s="1">
+        <v>325</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="D302" s="1">
+        <v>25.423728813559322</v>
+      </c>
+      <c r="E302" s="2">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="F302" s="1">
+        <v>2</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H302" s="3">
+        <v>44637</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" s="1">
+        <v>326</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>2497</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>2498</v>
+      </c>
+      <c r="D303" s="1">
+        <v>47.457627118644069</v>
+      </c>
+      <c r="E303" s="2">
+        <f t="shared" si="11"/>
+        <v>56</v>
+      </c>
+      <c r="F303" s="1">
+        <v>2</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H303" s="3">
+        <v>44637</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" s="6">
+        <v>327</v>
+      </c>
+      <c r="B304" s="6" t="s">
+        <v>2513</v>
+      </c>
+      <c r="C304" s="6" t="s">
+        <v>2514</v>
+      </c>
+      <c r="D304" s="6">
+        <v>50.847457627118644</v>
+      </c>
+      <c r="E304" s="15">
+        <f t="shared" ref="E304:E308" si="12">(D304*0.18)+D304</f>
+        <v>60</v>
+      </c>
+      <c r="F304" s="6">
+        <v>2</v>
+      </c>
+      <c r="G304" s="6" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H304" s="18">
+        <v>44638</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305" s="6">
+        <v>328</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D305" s="6">
+        <v>30.508474576271187</v>
+      </c>
+      <c r="E305" s="15">
+        <f t="shared" si="12"/>
+        <v>36</v>
+      </c>
+      <c r="F305" s="6">
+        <v>2</v>
+      </c>
+      <c r="G305" s="6" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H305" s="18">
+        <v>44638</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="A306" s="6">
+        <v>329</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C306" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="D306" s="6">
+        <v>50.847457627118644</v>
+      </c>
+      <c r="E306" s="15">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="F306" s="6">
+        <v>2</v>
+      </c>
+      <c r="G306" s="6" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H306" s="18">
+        <v>44638</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="A307" s="6">
+        <v>330</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>2515</v>
+      </c>
+      <c r="C307" s="6" t="s">
+        <v>2516</v>
+      </c>
+      <c r="D307" s="6">
+        <v>25.423728813559322</v>
+      </c>
+      <c r="E307" s="15">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="F307" s="6">
+        <v>2</v>
+      </c>
+      <c r="G307" s="6" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H307" s="18">
+        <v>44638</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" s="6">
+        <v>331</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>2517</v>
+      </c>
+      <c r="C308" s="6" t="s">
+        <v>2518</v>
+      </c>
+      <c r="D308" s="6">
+        <v>50.847457627118644</v>
+      </c>
+      <c r="E308" s="15">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="F308" s="6">
+        <v>2</v>
+      </c>
+      <c r="G308" s="6" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H308" s="18">
+        <v>44638</v>
       </c>
     </row>
   </sheetData>
@@ -25682,10 +29999,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I245"/>
+  <dimension ref="A1:I292"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="B235" sqref="B235"/>
+    <sheetView topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="A290" sqref="A290:H292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -31946,7 +36263,7 @@
         <v>104.40677966101696</v>
       </c>
       <c r="E232" s="2">
-        <f t="shared" ref="E232:E245" si="5">(D232*0.18)+D232</f>
+        <f t="shared" ref="E232:E252" si="5">(D232*0.18)+D232</f>
         <v>123.2</v>
       </c>
       <c r="F232" s="12">
@@ -32095,219 +36412,1488 @@
       </c>
     </row>
     <row r="238" spans="1:8">
-      <c r="A238" s="6">
+      <c r="A238" s="1">
         <v>262</v>
       </c>
-      <c r="B238" s="6" t="s">
+      <c r="B238" s="1" t="s">
         <v>2229</v>
       </c>
-      <c r="C238" s="6" t="s">
+      <c r="C238" s="1" t="s">
         <v>2230</v>
       </c>
-      <c r="D238" s="6">
+      <c r="D238" s="1">
         <v>73.220338983050851</v>
       </c>
-      <c r="E238" s="15">
+      <c r="E238" s="2">
         <f t="shared" si="5"/>
         <v>86.4</v>
       </c>
-      <c r="F238" s="17">
+      <c r="F238" s="12">
         <v>3</v>
       </c>
-      <c r="G238" s="17" t="s">
+      <c r="G238" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H238" s="18">
+      <c r="H238" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="239" spans="1:8">
-      <c r="A239" s="6">
+      <c r="A239" s="1">
         <v>263</v>
       </c>
-      <c r="B239" s="6" t="s">
+      <c r="B239" s="1" t="s">
         <v>2231</v>
       </c>
-      <c r="C239" s="6" t="s">
+      <c r="C239" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D239" s="6">
+      <c r="D239" s="1">
         <v>15.254237288135593</v>
       </c>
-      <c r="E239" s="15">
+      <c r="E239" s="2">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="F239" s="17">
+      <c r="F239" s="12">
         <v>3</v>
       </c>
-      <c r="G239" s="17" t="s">
+      <c r="G239" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H239" s="18">
+      <c r="H239" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="240" spans="1:8">
-      <c r="A240" s="6">
+      <c r="A240" s="1">
         <v>264</v>
       </c>
-      <c r="B240" s="6" t="s">
+      <c r="B240" s="1" t="s">
         <v>2233</v>
       </c>
-      <c r="C240" s="6" t="s">
+      <c r="C240" s="1" t="s">
         <v>2234</v>
       </c>
-      <c r="D240" s="6">
+      <c r="D240" s="1">
         <v>149.15254237288136</v>
       </c>
-      <c r="E240" s="15">
+      <c r="E240" s="2">
         <f t="shared" si="5"/>
         <v>176</v>
       </c>
-      <c r="F240" s="17">
+      <c r="F240" s="12">
         <v>3</v>
       </c>
-      <c r="G240" s="17" t="s">
+      <c r="G240" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H240" s="18">
+      <c r="H240" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="241" spans="1:8">
-      <c r="A241" s="6">
+      <c r="A241" s="1">
         <v>265</v>
       </c>
-      <c r="B241" s="6" t="s">
+      <c r="B241" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C241" s="6" t="s">
+      <c r="C241" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D241" s="6">
+      <c r="D241" s="1">
         <v>97.627118644067806</v>
       </c>
-      <c r="E241" s="15">
+      <c r="E241" s="2">
         <f t="shared" si="5"/>
         <v>115.20000000000002</v>
       </c>
-      <c r="F241" s="17">
+      <c r="F241" s="12">
         <v>3</v>
       </c>
-      <c r="G241" s="17" t="s">
+      <c r="G241" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H241" s="18">
+      <c r="H241" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="242" spans="1:8">
-      <c r="A242" s="6">
+      <c r="A242" s="1">
         <v>266</v>
       </c>
-      <c r="B242" s="6" t="s">
+      <c r="B242" s="1" t="s">
         <v>2235</v>
       </c>
-      <c r="C242" s="6" t="s">
+      <c r="C242" s="1" t="s">
         <v>2236</v>
       </c>
-      <c r="D242" s="6">
+      <c r="D242" s="1">
         <v>85.593220338983059</v>
       </c>
-      <c r="E242" s="15">
+      <c r="E242" s="2">
         <f t="shared" si="5"/>
         <v>101.00000000000001</v>
       </c>
-      <c r="F242" s="17">
+      <c r="F242" s="12">
         <v>3</v>
       </c>
-      <c r="G242" s="17" t="s">
+      <c r="G242" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H242" s="18">
+      <c r="H242" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="243" spans="1:8">
-      <c r="A243" s="6">
+      <c r="A243" s="1">
         <v>267</v>
       </c>
-      <c r="B243" s="6" t="s">
+      <c r="B243" s="1" t="s">
         <v>2237</v>
       </c>
-      <c r="C243" s="6" t="s">
+      <c r="C243" s="1" t="s">
         <v>2238</v>
       </c>
-      <c r="D243" s="6">
+      <c r="D243" s="1">
         <v>169.49152542372883</v>
       </c>
-      <c r="E243" s="15">
+      <c r="E243" s="2">
         <f t="shared" si="5"/>
         <v>200.00000000000003</v>
       </c>
-      <c r="F243" s="17">
+      <c r="F243" s="12">
         <v>3</v>
       </c>
-      <c r="G243" s="17" t="s">
+      <c r="G243" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H243" s="18">
+      <c r="H243" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="244" spans="1:8">
-      <c r="A244" s="6">
+      <c r="A244" s="1">
         <v>268</v>
       </c>
-      <c r="B244" s="6" t="s">
+      <c r="B244" s="1" t="s">
         <v>2239</v>
       </c>
-      <c r="C244" s="6" t="s">
+      <c r="C244" s="1" t="s">
         <v>2240</v>
       </c>
-      <c r="D244" s="6">
+      <c r="D244" s="1">
         <v>152.54237288135593</v>
       </c>
-      <c r="E244" s="15">
+      <c r="E244" s="2">
         <f t="shared" si="5"/>
         <v>180</v>
       </c>
-      <c r="F244" s="17">
+      <c r="F244" s="12">
         <v>3</v>
       </c>
-      <c r="G244" s="17" t="s">
+      <c r="G244" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H244" s="18">
+      <c r="H244" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="245" spans="1:8">
-      <c r="A245" s="6">
+      <c r="A245" s="1">
         <v>269</v>
       </c>
-      <c r="B245" s="6" t="s">
+      <c r="B245" s="1" t="s">
         <v>2241</v>
       </c>
-      <c r="C245" s="6" t="s">
+      <c r="C245" s="1" t="s">
         <v>2242</v>
       </c>
-      <c r="D245" s="6">
+      <c r="D245" s="1">
         <v>85.593220338983059</v>
       </c>
-      <c r="E245" s="15">
+      <c r="E245" s="2">
         <f t="shared" si="5"/>
         <v>101.00000000000001</v>
       </c>
-      <c r="F245" s="17">
+      <c r="F245" s="12">
         <v>3</v>
       </c>
-      <c r="G245" s="17" t="s">
+      <c r="G245" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H245" s="18">
+      <c r="H245" s="3">
         <v>44628</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="1">
+        <v>270</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D246" s="1">
+        <v>160.33898305084745</v>
+      </c>
+      <c r="E246" s="2">
+        <f t="shared" si="5"/>
+        <v>189.2</v>
+      </c>
+      <c r="F246" s="12">
+        <v>3</v>
+      </c>
+      <c r="G246" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H246" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="1">
+        <v>271</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D247" s="1">
+        <v>119.32203389830509</v>
+      </c>
+      <c r="E247" s="2">
+        <f t="shared" si="5"/>
+        <v>140.80000000000001</v>
+      </c>
+      <c r="F247" s="12">
+        <v>3</v>
+      </c>
+      <c r="G247" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H247" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="1">
+        <v>272</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D248" s="1">
+        <v>45.762711864406782</v>
+      </c>
+      <c r="E248" s="2">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="F248" s="12">
+        <v>3</v>
+      </c>
+      <c r="G248" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H248" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="1">
+        <v>273</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D249" s="1">
+        <v>22.542372881355934</v>
+      </c>
+      <c r="E249" s="2">
+        <f t="shared" si="5"/>
+        <v>26.6</v>
+      </c>
+      <c r="F249" s="12">
+        <v>3</v>
+      </c>
+      <c r="G249" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H249" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="1">
+        <v>274</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D250" s="1">
+        <v>127.79661016949154</v>
+      </c>
+      <c r="E250" s="2">
+        <f t="shared" si="5"/>
+        <v>150.80000000000001</v>
+      </c>
+      <c r="F250" s="12">
+        <v>3</v>
+      </c>
+      <c r="G250" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H250" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="1">
+        <v>275</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D251" s="1">
+        <v>49.152542372881356</v>
+      </c>
+      <c r="E251" s="2">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="F251" s="12">
+        <v>3</v>
+      </c>
+      <c r="G251" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H251" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="1">
+        <v>276</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D252" s="1">
+        <v>68.474576271186436</v>
+      </c>
+      <c r="E252" s="2">
+        <f t="shared" si="5"/>
+        <v>80.8</v>
+      </c>
+      <c r="F252" s="12">
+        <v>3</v>
+      </c>
+      <c r="G252" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H252" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" s="1">
+        <v>277</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="D253" s="1">
+        <v>204.06779661016952</v>
+      </c>
+      <c r="E253" s="2">
+        <f t="shared" ref="E253:E259" si="6">(D253*0.18)+D253</f>
+        <v>240.80000000000004</v>
+      </c>
+      <c r="F253" s="12">
+        <v>3</v>
+      </c>
+      <c r="G253" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H253" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="1">
+        <v>278</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="D254" s="1">
+        <v>42.457627118644069</v>
+      </c>
+      <c r="E254" s="2">
+        <f t="shared" si="6"/>
+        <v>50.1</v>
+      </c>
+      <c r="F254" s="12">
+        <v>3</v>
+      </c>
+      <c r="G254" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H254" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="1">
+        <v>279</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>2330</v>
+      </c>
+      <c r="D255" s="1">
+        <v>94.915254237288138</v>
+      </c>
+      <c r="E255" s="2">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="F255" s="12">
+        <v>3</v>
+      </c>
+      <c r="G255" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H255" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" s="1">
+        <v>280</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D256" s="1">
+        <v>142.37288135593221</v>
+      </c>
+      <c r="E256" s="2">
+        <f t="shared" si="6"/>
+        <v>168</v>
+      </c>
+      <c r="F256" s="12">
+        <v>3</v>
+      </c>
+      <c r="G256" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H256" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" s="1">
+        <v>281</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D257" s="1">
+        <v>239.66101694915255</v>
+      </c>
+      <c r="E257" s="2">
+        <f t="shared" si="6"/>
+        <v>282.8</v>
+      </c>
+      <c r="F257" s="12">
+        <v>3</v>
+      </c>
+      <c r="G257" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H257" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" s="1">
+        <v>282</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D258" s="1">
+        <v>68.474576271186436</v>
+      </c>
+      <c r="E258" s="2">
+        <f t="shared" si="6"/>
+        <v>80.8</v>
+      </c>
+      <c r="F258" s="12">
+        <v>3</v>
+      </c>
+      <c r="G258" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H258" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" s="1">
+        <v>283</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D259" s="1">
+        <v>12.711864406779661</v>
+      </c>
+      <c r="E259" s="2">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="F259" s="12">
+        <v>3</v>
+      </c>
+      <c r="G259" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H259" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" s="1">
+        <v>284</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="D260" s="1">
+        <v>45.762711864406782</v>
+      </c>
+      <c r="E260" s="2">
+        <f t="shared" ref="E260:E268" si="7">(D260*0.18)+D260</f>
+        <v>54</v>
+      </c>
+      <c r="F260" s="12">
+        <v>3</v>
+      </c>
+      <c r="G260" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H260" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="1">
+        <v>285</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D261" s="1">
+        <v>53.389830508474581</v>
+      </c>
+      <c r="E261" s="2">
+        <f t="shared" si="7"/>
+        <v>63.000000000000007</v>
+      </c>
+      <c r="F261" s="12">
+        <v>3</v>
+      </c>
+      <c r="G261" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H261" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" s="1">
+        <v>286</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D262" s="1">
+        <v>21.101694915254239</v>
+      </c>
+      <c r="E262" s="2">
+        <f t="shared" si="7"/>
+        <v>24.900000000000002</v>
+      </c>
+      <c r="F262" s="12">
+        <v>3</v>
+      </c>
+      <c r="G262" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H262" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" s="1">
+        <v>287</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="D263" s="1">
+        <v>24.406779661016952</v>
+      </c>
+      <c r="E263" s="2">
+        <f t="shared" si="7"/>
+        <v>28.800000000000004</v>
+      </c>
+      <c r="F263" s="12">
+        <v>3</v>
+      </c>
+      <c r="G263" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H263" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" s="1">
+        <v>288</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="D264" s="1">
+        <v>68.474576271186436</v>
+      </c>
+      <c r="E264" s="2">
+        <f t="shared" si="7"/>
+        <v>80.8</v>
+      </c>
+      <c r="F264" s="12">
+        <v>3</v>
+      </c>
+      <c r="G264" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H264" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="1">
+        <v>289</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D265" s="1">
+        <v>42.79661016949153</v>
+      </c>
+      <c r="E265" s="2">
+        <f t="shared" si="7"/>
+        <v>50.500000000000007</v>
+      </c>
+      <c r="F265" s="12">
+        <v>3</v>
+      </c>
+      <c r="G265" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H265" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="1">
+        <v>290</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="D266" s="1">
+        <v>67.79661016949153</v>
+      </c>
+      <c r="E266" s="2">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="F266" s="12">
+        <v>3</v>
+      </c>
+      <c r="G266" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H266" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="1">
+        <v>291</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D267" s="1">
+        <v>135.59322033898306</v>
+      </c>
+      <c r="E267" s="2">
+        <f t="shared" si="7"/>
+        <v>160</v>
+      </c>
+      <c r="F267" s="12">
+        <v>3</v>
+      </c>
+      <c r="G267" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H267" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="1">
+        <v>292</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="D268" s="1">
+        <v>61.016949152542374</v>
+      </c>
+      <c r="E268" s="2">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="F268" s="12">
+        <v>3</v>
+      </c>
+      <c r="G268" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H268" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" s="1">
+        <v>293</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="D269" s="1">
+        <v>119.32203389830509</v>
+      </c>
+      <c r="E269" s="2">
+        <f t="shared" ref="E269:E277" si="8">(D269*0.18)+D269</f>
+        <v>140.80000000000001</v>
+      </c>
+      <c r="F269" s="12">
+        <v>3</v>
+      </c>
+      <c r="G269" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H269" s="3">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" s="1">
+        <v>294</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="D270" s="1">
+        <v>30.16949152542373</v>
+      </c>
+      <c r="E270" s="2">
+        <f t="shared" si="8"/>
+        <v>35.6</v>
+      </c>
+      <c r="F270" s="12">
+        <v>3</v>
+      </c>
+      <c r="G270" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H270" s="3">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" s="1">
+        <v>295</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D271" s="1">
+        <v>6.1016949152542379</v>
+      </c>
+      <c r="E271" s="2">
+        <f t="shared" si="8"/>
+        <v>7.2000000000000011</v>
+      </c>
+      <c r="F271" s="12">
+        <v>3</v>
+      </c>
+      <c r="G271" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H271" s="3">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" s="1">
+        <v>296</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D272" s="1">
+        <v>27.966101694915256</v>
+      </c>
+      <c r="E272" s="2">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="F272" s="12">
+        <v>3</v>
+      </c>
+      <c r="G272" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H272" s="3">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" s="1">
+        <v>297</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="D273" s="1">
+        <v>104.40677966101696</v>
+      </c>
+      <c r="E273" s="2">
+        <f t="shared" si="8"/>
+        <v>123.2</v>
+      </c>
+      <c r="F273" s="12">
+        <v>3</v>
+      </c>
+      <c r="G273" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H273" s="3">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" s="1">
+        <v>298</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D274" s="1">
+        <v>68.474576271186436</v>
+      </c>
+      <c r="E274" s="2">
+        <f t="shared" si="8"/>
+        <v>80.8</v>
+      </c>
+      <c r="F274" s="12">
+        <v>3</v>
+      </c>
+      <c r="G274" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H274" s="3">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" s="1">
+        <v>299</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="D275" s="1">
+        <v>135.59322033898306</v>
+      </c>
+      <c r="E275" s="2">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="F275" s="12">
+        <v>3</v>
+      </c>
+      <c r="G275" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H275" s="3">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" s="1">
+        <v>300</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="D276" s="1">
+        <v>88.983050847457633</v>
+      </c>
+      <c r="E276" s="2">
+        <f t="shared" si="8"/>
+        <v>105</v>
+      </c>
+      <c r="F276" s="12">
+        <v>3</v>
+      </c>
+      <c r="G276" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H276" s="3">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" s="1">
+        <v>301</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>2409</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="D277" s="1">
+        <v>204.40677966101694</v>
+      </c>
+      <c r="E277" s="2">
+        <f t="shared" si="8"/>
+        <v>241.2</v>
+      </c>
+      <c r="F277" s="12">
+        <v>3</v>
+      </c>
+      <c r="G277" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H277" s="3">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" s="1">
+        <v>302</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D278" s="1">
+        <v>68.474576271186436</v>
+      </c>
+      <c r="E278" s="2">
+        <f t="shared" ref="E278:E281" si="9">(D278*0.18)+D278</f>
+        <v>80.8</v>
+      </c>
+      <c r="F278" s="12">
+        <v>3</v>
+      </c>
+      <c r="G278" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H278" s="3">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="1">
+        <v>303</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D279" s="1">
+        <v>162.71186440677968</v>
+      </c>
+      <c r="E279" s="2">
+        <f t="shared" si="9"/>
+        <v>192.00000000000003</v>
+      </c>
+      <c r="F279" s="12">
+        <v>3</v>
+      </c>
+      <c r="G279" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H279" s="3">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" s="1">
+        <v>304</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="D280" s="1">
+        <v>169.49152542372883</v>
+      </c>
+      <c r="E280" s="2">
+        <f t="shared" si="9"/>
+        <v>200.00000000000003</v>
+      </c>
+      <c r="F280" s="12">
+        <v>3</v>
+      </c>
+      <c r="G280" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H280" s="3">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" s="1">
+        <v>305</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D281" s="1">
+        <v>76.271186440677965</v>
+      </c>
+      <c r="E281" s="2">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="F281" s="12">
+        <v>3</v>
+      </c>
+      <c r="G281" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H281" s="3">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" s="1">
+        <v>306</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D282" s="1">
+        <v>156.61016949152545</v>
+      </c>
+      <c r="E282" s="2">
+        <f t="shared" ref="E282:E285" si="10">(D282*0.18)+D282</f>
+        <v>184.80000000000004</v>
+      </c>
+      <c r="F282" s="12">
+        <v>3</v>
+      </c>
+      <c r="G282" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H282" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" s="1">
+        <v>307</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="D283" s="1">
+        <v>115.59322033898306</v>
+      </c>
+      <c r="E283" s="2">
+        <f t="shared" si="10"/>
+        <v>136.4</v>
+      </c>
+      <c r="F283" s="12">
+        <v>3</v>
+      </c>
+      <c r="G283" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H283" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" s="1">
+        <v>308</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="D284" s="1">
+        <v>132.20338983050848</v>
+      </c>
+      <c r="E284" s="2">
+        <f t="shared" si="10"/>
+        <v>156</v>
+      </c>
+      <c r="F284" s="12">
+        <v>3</v>
+      </c>
+      <c r="G284" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H284" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" s="1">
+        <v>309</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D285" s="1">
+        <v>68.474576271186436</v>
+      </c>
+      <c r="E285" s="2">
+        <f t="shared" si="10"/>
+        <v>80.8</v>
+      </c>
+      <c r="F285" s="12">
+        <v>3</v>
+      </c>
+      <c r="G285" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H285" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" s="1">
+        <v>310</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D286" s="1">
+        <v>81.016949152542367</v>
+      </c>
+      <c r="E286" s="2">
+        <f t="shared" ref="E286:E289" si="11">(D286*0.18)+D286</f>
+        <v>95.6</v>
+      </c>
+      <c r="F286" s="12">
+        <v>3</v>
+      </c>
+      <c r="G286" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H286" s="3">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" s="1">
+        <v>311</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D287" s="1">
+        <v>61.016949152542374</v>
+      </c>
+      <c r="E287" s="2">
+        <f t="shared" si="11"/>
+        <v>72</v>
+      </c>
+      <c r="F287" s="12">
+        <v>3</v>
+      </c>
+      <c r="G287" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H287" s="3">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" s="1">
+        <v>312</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D288" s="1">
+        <v>67.79661016949153</v>
+      </c>
+      <c r="E288" s="2">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="F288" s="12">
+        <v>3</v>
+      </c>
+      <c r="G288" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H288" s="3">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" s="1">
+        <v>313</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D289" s="1">
+        <v>57.627118644067799</v>
+      </c>
+      <c r="E289" s="2">
+        <f t="shared" si="11"/>
+        <v>68</v>
+      </c>
+      <c r="F289" s="12">
+        <v>3</v>
+      </c>
+      <c r="G289" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H289" s="3">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" s="6">
+        <v>314</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>2499</v>
+      </c>
+      <c r="C290" s="6" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D290" s="6">
+        <v>42.457627118644069</v>
+      </c>
+      <c r="E290" s="15">
+        <f t="shared" ref="E290:E292" si="12">(D290*0.18)+D290</f>
+        <v>50.1</v>
+      </c>
+      <c r="F290" s="17">
+        <v>3</v>
+      </c>
+      <c r="G290" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H290" s="18">
+        <v>44637</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" s="6">
+        <v>315</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="C291" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D291" s="6">
+        <v>40.677966101694921</v>
+      </c>
+      <c r="E291" s="15">
+        <f t="shared" si="12"/>
+        <v>48.000000000000007</v>
+      </c>
+      <c r="F291" s="17">
+        <v>3</v>
+      </c>
+      <c r="G291" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H291" s="18">
+        <v>44637</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" s="6">
+        <v>316</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>2501</v>
+      </c>
+      <c r="C292" s="6" t="s">
+        <v>2502</v>
+      </c>
+      <c r="D292" s="6">
+        <v>68.474576271186436</v>
+      </c>
+      <c r="E292" s="15">
+        <f t="shared" si="12"/>
+        <v>80.8</v>
+      </c>
+      <c r="F292" s="17">
+        <v>3</v>
+      </c>
+      <c r="G292" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H292" s="18">
+        <v>44637</v>
       </c>
     </row>
   </sheetData>
@@ -32317,10 +37903,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I237"/>
+  <dimension ref="A1:I275"/>
   <sheetViews>
-    <sheetView topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="B238" sqref="B238"/>
+    <sheetView topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="B266" sqref="B266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -38461,7 +44047,7 @@
         <v>178.30508474576271</v>
       </c>
       <c r="E228" s="2">
-        <f t="shared" ref="E228:E237" si="4">(D228*0.18)+D228</f>
+        <f t="shared" ref="E228:E242" si="4">(D228*0.18)+D228</f>
         <v>210.4</v>
       </c>
       <c r="F228" s="12">
@@ -38610,111 +44196,1137 @@
       </c>
     </row>
     <row r="234" spans="1:8">
-      <c r="A234" s="6">
+      <c r="A234" s="1">
         <v>248</v>
       </c>
-      <c r="B234" s="6" t="s">
+      <c r="B234" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C234" s="6" t="s">
+      <c r="C234" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D234" s="6">
+      <c r="D234" s="1">
         <v>152.54237288135593</v>
       </c>
-      <c r="E234" s="15">
+      <c r="E234" s="2">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="F234" s="17">
+      <c r="F234" s="12">
         <v>4</v>
       </c>
-      <c r="G234" s="17" t="s">
+      <c r="G234" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H234" s="18">
+      <c r="H234" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="235" spans="1:8">
-      <c r="A235" s="6">
+      <c r="A235" s="1">
         <v>249</v>
       </c>
-      <c r="B235" s="6" t="s">
+      <c r="B235" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C235" s="6" t="s">
+      <c r="C235" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D235" s="6">
+      <c r="D235" s="1">
         <v>83.389830508474589</v>
       </c>
-      <c r="E235" s="15">
+      <c r="E235" s="2">
         <f t="shared" si="4"/>
         <v>98.40000000000002</v>
       </c>
-      <c r="F235" s="17">
+      <c r="F235" s="12">
         <v>4</v>
       </c>
-      <c r="G235" s="17" t="s">
+      <c r="G235" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H235" s="18">
+      <c r="H235" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="236" spans="1:8">
-      <c r="A236" s="6">
+      <c r="A236" s="1">
         <v>250</v>
       </c>
-      <c r="B236" s="6" t="s">
+      <c r="B236" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="C236" s="6" t="s">
+      <c r="C236" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="D236" s="6">
+      <c r="D236" s="1">
         <v>47.457627118644069</v>
       </c>
-      <c r="E236" s="15">
+      <c r="E236" s="2">
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
-      <c r="F236" s="17">
+      <c r="F236" s="12">
         <v>4</v>
       </c>
-      <c r="G236" s="17" t="s">
+      <c r="G236" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H236" s="18">
+      <c r="H236" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="237" spans="1:8">
-      <c r="A237" s="6">
+      <c r="A237" s="1">
         <v>251</v>
       </c>
-      <c r="B237" s="6" t="s">
+      <c r="B237" s="1" t="s">
         <v>2243</v>
       </c>
-      <c r="C237" s="6" t="s">
+      <c r="C237" s="1" t="s">
         <v>2244</v>
       </c>
-      <c r="D237" s="6">
+      <c r="D237" s="1">
         <v>463.05084745762713</v>
       </c>
-      <c r="E237" s="15">
+      <c r="E237" s="2">
         <f t="shared" si="4"/>
         <v>546.4</v>
       </c>
-      <c r="F237" s="17">
+      <c r="F237" s="12">
         <v>4</v>
       </c>
-      <c r="G237" s="17" t="s">
+      <c r="G237" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H237" s="18">
+      <c r="H237" s="3">
         <v>44628</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" s="1">
+        <v>252</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D238" s="1">
+        <v>119.32203389830509</v>
+      </c>
+      <c r="E238" s="2">
+        <f t="shared" si="4"/>
+        <v>140.80000000000001</v>
+      </c>
+      <c r="F238" s="12">
+        <v>4</v>
+      </c>
+      <c r="G238" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H238" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" s="1">
+        <v>253</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D239" s="1">
+        <v>36.440677966101696</v>
+      </c>
+      <c r="E239" s="2">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="F239" s="12">
+        <v>4</v>
+      </c>
+      <c r="G239" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H239" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" s="1">
+        <v>254</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="D240" s="1">
+        <v>50.847457627118644</v>
+      </c>
+      <c r="E240" s="2">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="F240" s="12">
+        <v>4</v>
+      </c>
+      <c r="G240" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H240" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="1">
+        <v>255</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D241" s="1">
+        <v>118.64406779661017</v>
+      </c>
+      <c r="E241" s="2">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="F241" s="12">
+        <v>4</v>
+      </c>
+      <c r="G241" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H241" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="1">
+        <v>256</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D242" s="1">
+        <v>83.389830508474589</v>
+      </c>
+      <c r="E242" s="2">
+        <f t="shared" si="4"/>
+        <v>98.40000000000002</v>
+      </c>
+      <c r="F242" s="12">
+        <v>4</v>
+      </c>
+      <c r="G242" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H242" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" s="1">
+        <v>257</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>2313</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="D243" s="1">
+        <v>149.15254237288136</v>
+      </c>
+      <c r="E243" s="2">
+        <f t="shared" ref="E243:E249" si="5">(D243*0.18)+D243</f>
+        <v>176</v>
+      </c>
+      <c r="F243" s="12">
+        <v>4</v>
+      </c>
+      <c r="G243" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H243" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" s="1">
+        <v>258</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D244" s="1">
+        <v>373.55932203389835</v>
+      </c>
+      <c r="E244" s="2">
+        <f t="shared" si="5"/>
+        <v>440.80000000000007</v>
+      </c>
+      <c r="F244" s="12">
+        <v>4</v>
+      </c>
+      <c r="G244" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H244" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="1">
+        <v>259</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D245" s="1">
+        <v>119.32203389830509</v>
+      </c>
+      <c r="E245" s="2">
+        <f t="shared" si="5"/>
+        <v>140.80000000000001</v>
+      </c>
+      <c r="F245" s="12">
+        <v>4</v>
+      </c>
+      <c r="G245" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H245" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="1">
+        <v>260</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D246" s="1">
+        <v>135.59322033898306</v>
+      </c>
+      <c r="E246" s="2">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="F246" s="12">
+        <v>4</v>
+      </c>
+      <c r="G246" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H246" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="1">
+        <v>261</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="D247" s="1">
+        <v>63.559322033898312</v>
+      </c>
+      <c r="E247" s="2">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="F247" s="12">
+        <v>4</v>
+      </c>
+      <c r="G247" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H247" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="1">
+        <v>262</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="D248" s="1">
+        <v>50.847457627118644</v>
+      </c>
+      <c r="E248" s="2">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="F248" s="12">
+        <v>4</v>
+      </c>
+      <c r="G248" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H248" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="1">
+        <v>263</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D249" s="1">
+        <v>119.32203389830509</v>
+      </c>
+      <c r="E249" s="2">
+        <f t="shared" si="5"/>
+        <v>140.80000000000001</v>
+      </c>
+      <c r="F249" s="12">
+        <v>4</v>
+      </c>
+      <c r="G249" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H249" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="1">
+        <v>264</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>2368</v>
+      </c>
+      <c r="D250" s="1">
+        <v>81.355932203389841</v>
+      </c>
+      <c r="E250" s="2">
+        <f t="shared" ref="E250:E254" si="6">(D250*0.18)+D250</f>
+        <v>96.000000000000014</v>
+      </c>
+      <c r="F250" s="12">
+        <v>4</v>
+      </c>
+      <c r="G250" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H250" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="1">
+        <v>265</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>2370</v>
+      </c>
+      <c r="D251" s="1">
+        <v>178.30508474576271</v>
+      </c>
+      <c r="E251" s="2">
+        <f t="shared" si="6"/>
+        <v>210.4</v>
+      </c>
+      <c r="F251" s="12">
+        <v>4</v>
+      </c>
+      <c r="G251" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H251" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="1">
+        <v>266</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D252" s="1">
+        <v>63.728813559322042</v>
+      </c>
+      <c r="E252" s="2">
+        <f t="shared" si="6"/>
+        <v>75.2</v>
+      </c>
+      <c r="F252" s="12">
+        <v>4</v>
+      </c>
+      <c r="G252" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H252" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" s="1">
+        <v>267</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D253" s="1">
+        <v>41.525423728813564</v>
+      </c>
+      <c r="E253" s="2">
+        <f t="shared" si="6"/>
+        <v>49.000000000000007</v>
+      </c>
+      <c r="F253" s="12">
+        <v>4</v>
+      </c>
+      <c r="G253" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H253" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="1">
+        <v>268</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D254" s="1">
+        <v>51.186440677966104</v>
+      </c>
+      <c r="E254" s="2">
+        <f t="shared" si="6"/>
+        <v>60.400000000000006</v>
+      </c>
+      <c r="F254" s="12">
+        <v>4</v>
+      </c>
+      <c r="G254" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H254" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="1">
+        <v>269</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="D255" s="1">
+        <v>20.33898305084746</v>
+      </c>
+      <c r="E255" s="2">
+        <f t="shared" ref="E255:E257" si="7">(D255*0.18)+D255</f>
+        <v>24.000000000000004</v>
+      </c>
+      <c r="F255" s="12">
+        <v>4</v>
+      </c>
+      <c r="G255" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H255" s="3">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" s="1">
+        <v>270</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D256" s="1">
+        <v>122.03389830508475</v>
+      </c>
+      <c r="E256" s="2">
+        <f t="shared" si="7"/>
+        <v>144</v>
+      </c>
+      <c r="F256" s="12">
+        <v>4</v>
+      </c>
+      <c r="G256" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H256" s="3">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" s="1">
+        <v>271</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="D257" s="1">
+        <v>279.15254237288133</v>
+      </c>
+      <c r="E257" s="2">
+        <f t="shared" si="7"/>
+        <v>329.4</v>
+      </c>
+      <c r="F257" s="12">
+        <v>4</v>
+      </c>
+      <c r="G257" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H257" s="3">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" s="1">
+        <v>272</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D258" s="1">
+        <v>68.474576271186436</v>
+      </c>
+      <c r="E258" s="2">
+        <f t="shared" ref="E258" si="8">(D258*0.18)+D258</f>
+        <v>80.8</v>
+      </c>
+      <c r="F258" s="12">
+        <v>4</v>
+      </c>
+      <c r="G258" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H258" s="3">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" s="1">
+        <v>273</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>2433</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="D259" s="1">
+        <v>59.661016949152547</v>
+      </c>
+      <c r="E259" s="2">
+        <f t="shared" ref="E259:E263" si="9">(D259*0.18)+D259</f>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="F259" s="12">
+        <v>4</v>
+      </c>
+      <c r="G259" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H259" s="3">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" s="1">
+        <v>274</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D260" s="1">
+        <v>152.54237288135593</v>
+      </c>
+      <c r="E260" s="2">
+        <f t="shared" si="9"/>
+        <v>180</v>
+      </c>
+      <c r="F260" s="12">
+        <v>4</v>
+      </c>
+      <c r="G260" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H260" s="3">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="1">
+        <v>275</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>2435</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D261" s="1">
+        <v>176.27118644067798</v>
+      </c>
+      <c r="E261" s="2">
+        <f t="shared" si="9"/>
+        <v>208</v>
+      </c>
+      <c r="F261" s="12">
+        <v>4</v>
+      </c>
+      <c r="G261" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H261" s="3">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" s="1">
+        <v>276</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D262" s="1">
+        <v>50.847457627118644</v>
+      </c>
+      <c r="E262" s="2">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="F262" s="12">
+        <v>4</v>
+      </c>
+      <c r="G262" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H262" s="3">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" s="1">
+        <v>277</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D263" s="1">
+        <v>104.23728813559323</v>
+      </c>
+      <c r="E263" s="2">
+        <f t="shared" si="9"/>
+        <v>123.00000000000001</v>
+      </c>
+      <c r="F263" s="12">
+        <v>4</v>
+      </c>
+      <c r="G263" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H263" s="3">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" s="1">
+        <v>278</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>2466</v>
+      </c>
+      <c r="D264" s="1">
+        <v>203.38983050847457</v>
+      </c>
+      <c r="E264" s="2">
+        <f t="shared" ref="E264:E267" si="10">(D264*0.18)+D264</f>
+        <v>240</v>
+      </c>
+      <c r="F264" s="12">
+        <v>4</v>
+      </c>
+      <c r="G264" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H264" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="1">
+        <v>279</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D265" s="1">
+        <v>94.915254237288138</v>
+      </c>
+      <c r="E265" s="2">
+        <f t="shared" si="10"/>
+        <v>112</v>
+      </c>
+      <c r="F265" s="12">
+        <v>4</v>
+      </c>
+      <c r="G265" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H265" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="1">
+        <v>280</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="D266" s="1">
+        <v>228.81355932203391</v>
+      </c>
+      <c r="E266" s="2">
+        <f t="shared" si="10"/>
+        <v>270</v>
+      </c>
+      <c r="F266" s="12">
+        <v>4</v>
+      </c>
+      <c r="G266" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H266" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="1">
+        <v>281</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="D267" s="1">
+        <v>178.30508474576271</v>
+      </c>
+      <c r="E267" s="2">
+        <f t="shared" si="10"/>
+        <v>210.4</v>
+      </c>
+      <c r="F267" s="12">
+        <v>4</v>
+      </c>
+      <c r="G267" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H267" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="1">
+        <v>282</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="D268" s="1">
+        <v>135.59322033898306</v>
+      </c>
+      <c r="E268" s="2">
+        <f t="shared" ref="E268:E270" si="11">(D268*0.18)+D268</f>
+        <v>160</v>
+      </c>
+      <c r="F268" s="12">
+        <v>4</v>
+      </c>
+      <c r="G268" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H268" s="3">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" s="1">
+        <v>283</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D269" s="1">
+        <v>152.54237288135593</v>
+      </c>
+      <c r="E269" s="2">
+        <f t="shared" si="11"/>
+        <v>180</v>
+      </c>
+      <c r="F269" s="12">
+        <v>4</v>
+      </c>
+      <c r="G269" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H269" s="3">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" s="1">
+        <v>284</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D270" s="1">
+        <v>50.847457627118644</v>
+      </c>
+      <c r="E270" s="2">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="F270" s="12">
+        <v>4</v>
+      </c>
+      <c r="G270" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H270" s="3">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" s="6">
+        <v>285</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D271" s="6">
+        <v>68.474576271186436</v>
+      </c>
+      <c r="E271" s="15">
+        <f t="shared" ref="E271:E275" si="12">(D271*0.18)+D271</f>
+        <v>80.8</v>
+      </c>
+      <c r="F271" s="17">
+        <v>4</v>
+      </c>
+      <c r="G271" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H271" s="18">
+        <v>44638</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" s="6">
+        <v>286</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>2519</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>2520</v>
+      </c>
+      <c r="D272" s="6">
+        <v>35.932203389830512</v>
+      </c>
+      <c r="E272" s="15">
+        <f t="shared" si="12"/>
+        <v>42.400000000000006</v>
+      </c>
+      <c r="F272" s="17">
+        <v>4</v>
+      </c>
+      <c r="G272" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H272" s="18">
+        <v>44638</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" s="6">
+        <v>287</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="D273" s="6">
+        <v>59.661016949152547</v>
+      </c>
+      <c r="E273" s="15">
+        <f t="shared" si="12"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="F273" s="17">
+        <v>4</v>
+      </c>
+      <c r="G273" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H273" s="18">
+        <v>44638</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" s="6">
+        <v>288</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D274" s="6">
+        <v>12.881355932203389</v>
+      </c>
+      <c r="E274" s="15">
+        <f t="shared" si="12"/>
+        <v>15.2</v>
+      </c>
+      <c r="F274" s="17">
+        <v>4</v>
+      </c>
+      <c r="G274" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H274" s="18">
+        <v>44638</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" s="6">
+        <v>289</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D275" s="6">
+        <v>76.271186440677965</v>
+      </c>
+      <c r="E275" s="15">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="F275" s="17">
+        <v>4</v>
+      </c>
+      <c r="G275" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H275" s="18">
+        <v>44638</v>
       </c>
     </row>
   </sheetData>
@@ -38724,10 +45336,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="C191" sqref="C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -43261,138 +49873,921 @@
       </c>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="6">
+      <c r="A169" s="1">
         <v>180</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B169" s="1" t="s">
         <v>2245</v>
       </c>
-      <c r="C169" s="6" t="s">
+      <c r="C169" s="1" t="s">
         <v>2246</v>
       </c>
-      <c r="D169" s="6">
+      <c r="D169" s="1">
         <v>50.847457627118644</v>
       </c>
-      <c r="E169" s="19">
+      <c r="E169" s="10">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="F169" s="17">
+      <c r="F169" s="12">
         <v>5</v>
       </c>
-      <c r="G169" s="17" t="s">
+      <c r="G169" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H169" s="18">
+      <c r="H169" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="6">
+      <c r="A170" s="1">
         <v>181</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C170" s="6" t="s">
+      <c r="C170" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D170" s="6">
+      <c r="D170" s="1">
         <v>94.915254237288138</v>
       </c>
-      <c r="E170" s="19">
+      <c r="E170" s="10">
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="F170" s="17">
+      <c r="F170" s="12">
         <v>5</v>
       </c>
-      <c r="G170" s="17" t="s">
+      <c r="G170" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H170" s="18">
+      <c r="H170" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="6">
+      <c r="A171" s="1">
         <v>182</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B171" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="C171" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D171" s="6">
+      <c r="D171" s="1">
         <v>37.966101694915253</v>
       </c>
-      <c r="E171" s="19">
+      <c r="E171" s="10">
         <f t="shared" si="5"/>
         <v>44.8</v>
       </c>
-      <c r="F171" s="17">
+      <c r="F171" s="12">
         <v>5</v>
       </c>
-      <c r="G171" s="17" t="s">
+      <c r="G171" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H171" s="18">
+      <c r="H171" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="6">
+      <c r="A172" s="1">
         <v>183</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B172" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="C172" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D172" s="6">
+      <c r="D172" s="1">
         <v>40.677966101694921</v>
       </c>
-      <c r="E172" s="19">
+      <c r="E172" s="10">
         <f t="shared" si="5"/>
         <v>48.000000000000007</v>
       </c>
-      <c r="F172" s="17">
+      <c r="F172" s="12">
         <v>5</v>
       </c>
-      <c r="G172" s="17" t="s">
+      <c r="G172" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H172" s="18">
+      <c r="H172" s="3">
         <v>44628</v>
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="6">
+      <c r="A173" s="1">
         <v>184</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B173" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="C173" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="D173" s="6">
+      <c r="D173" s="1">
         <v>135.59322033898306</v>
       </c>
-      <c r="E173" s="19">
+      <c r="E173" s="10">
         <f t="shared" si="5"/>
         <v>160</v>
       </c>
-      <c r="F173" s="17">
+      <c r="F173" s="12">
         <v>5</v>
       </c>
-      <c r="G173" s="17" t="s">
+      <c r="G173" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H173" s="18">
+      <c r="H173" s="3">
         <v>44628</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="1">
+        <v>185</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D174" s="1">
+        <v>379.66101694915255</v>
+      </c>
+      <c r="E174" s="10">
+        <f t="shared" ref="E174:E177" si="6">(D174*0.18)+D174</f>
+        <v>448</v>
+      </c>
+      <c r="F174" s="12">
+        <v>5</v>
+      </c>
+      <c r="G174" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H174" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="1">
+        <v>186</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D175" s="1">
+        <v>71.186440677966104</v>
+      </c>
+      <c r="E175" s="10">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="F175" s="12">
+        <v>5</v>
+      </c>
+      <c r="G175" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H175" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="1">
+        <v>187</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D176" s="1">
+        <v>127.45762711864408</v>
+      </c>
+      <c r="E176" s="10">
+        <f t="shared" si="6"/>
+        <v>150.4</v>
+      </c>
+      <c r="F176" s="12">
+        <v>5</v>
+      </c>
+      <c r="G176" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H176" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="1">
+        <v>188</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D177" s="1">
+        <v>40.677966101694921</v>
+      </c>
+      <c r="E177" s="10">
+        <f t="shared" si="6"/>
+        <v>48.000000000000007</v>
+      </c>
+      <c r="F177" s="12">
+        <v>5</v>
+      </c>
+      <c r="G177" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H177" s="3">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="1">
+        <v>189</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D178" s="1">
+        <v>23.559322033898308</v>
+      </c>
+      <c r="E178" s="10">
+        <f t="shared" ref="E178:E183" si="7">(D178*0.18)+D178</f>
+        <v>27.800000000000004</v>
+      </c>
+      <c r="F178" s="12">
+        <v>5</v>
+      </c>
+      <c r="G178" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H178" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="1">
+        <v>190</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D179" s="1">
+        <v>27.966101694915256</v>
+      </c>
+      <c r="E179" s="10">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="F179" s="12">
+        <v>5</v>
+      </c>
+      <c r="G179" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H179" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="1">
+        <v>191</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D180" s="1">
+        <v>41.525423728813564</v>
+      </c>
+      <c r="E180" s="10">
+        <f t="shared" si="7"/>
+        <v>49.000000000000007</v>
+      </c>
+      <c r="F180" s="12">
+        <v>5</v>
+      </c>
+      <c r="G180" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H180" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="1">
+        <v>192</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D181" s="1">
+        <v>12.881355932203389</v>
+      </c>
+      <c r="E181" s="10">
+        <f t="shared" si="7"/>
+        <v>15.2</v>
+      </c>
+      <c r="F181" s="12">
+        <v>5</v>
+      </c>
+      <c r="G181" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H181" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="1">
+        <v>193</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="D182" s="1">
+        <v>63.728813559322042</v>
+      </c>
+      <c r="E182" s="10">
+        <f t="shared" si="7"/>
+        <v>75.2</v>
+      </c>
+      <c r="F182" s="12">
+        <v>5</v>
+      </c>
+      <c r="G182" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H182" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="1">
+        <v>194</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="D183" s="1">
+        <v>508.47457627118649</v>
+      </c>
+      <c r="E183" s="10">
+        <f t="shared" si="7"/>
+        <v>600</v>
+      </c>
+      <c r="F183" s="12">
+        <v>5</v>
+      </c>
+      <c r="G183" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H183" s="3">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="1">
+        <v>195</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D184" s="1">
+        <v>135.59322033898306</v>
+      </c>
+      <c r="E184" s="10">
+        <f t="shared" ref="E184:E187" si="8">(D184*0.18)+D184</f>
+        <v>160</v>
+      </c>
+      <c r="F184" s="12">
+        <v>5</v>
+      </c>
+      <c r="G184" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H184" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="1">
+        <v>196</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="D185" s="1">
+        <v>77.966101694915253</v>
+      </c>
+      <c r="E185" s="10">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="F185" s="12">
+        <v>5</v>
+      </c>
+      <c r="G185" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H185" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="1">
+        <v>197</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D186" s="1">
+        <v>13.559322033898306</v>
+      </c>
+      <c r="E186" s="10">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="F186" s="12">
+        <v>5</v>
+      </c>
+      <c r="G186" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H186" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="1">
+        <v>198</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="D187" s="1">
+        <v>152.54237288135593</v>
+      </c>
+      <c r="E187" s="10">
+        <f t="shared" si="8"/>
+        <v>180</v>
+      </c>
+      <c r="F187" s="12">
+        <v>5</v>
+      </c>
+      <c r="G187" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H187" s="3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="1">
+        <v>199</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="D188" s="1">
+        <v>51.525423728813557</v>
+      </c>
+      <c r="E188" s="10">
+        <f>(D188*0.18)+D188</f>
+        <v>60.8</v>
+      </c>
+      <c r="F188" s="12">
+        <v>5</v>
+      </c>
+      <c r="G188" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H188" s="3">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="1">
+        <v>200</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D189" s="1">
+        <v>44.067796610169495</v>
+      </c>
+      <c r="E189" s="10">
+        <f t="shared" ref="E189:E192" si="9">(D189*0.18)+D189</f>
+        <v>52</v>
+      </c>
+      <c r="F189" s="12">
+        <v>5</v>
+      </c>
+      <c r="G189" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H189" s="3">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="1">
+        <v>201</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D190" s="1">
+        <v>27.796610169491526</v>
+      </c>
+      <c r="E190" s="10">
+        <f t="shared" si="9"/>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="F190" s="12">
+        <v>5</v>
+      </c>
+      <c r="G190" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H190" s="3">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="1">
+        <v>202</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="D191" s="1">
+        <v>91.525423728813564</v>
+      </c>
+      <c r="E191" s="10">
+        <f t="shared" si="9"/>
+        <v>108</v>
+      </c>
+      <c r="F191" s="12">
+        <v>5</v>
+      </c>
+      <c r="G191" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H191" s="3">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="1">
+        <v>203</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="D192" s="1">
+        <v>94.915254237288138</v>
+      </c>
+      <c r="E192" s="10">
+        <f t="shared" si="9"/>
+        <v>112</v>
+      </c>
+      <c r="F192" s="12">
+        <v>5</v>
+      </c>
+      <c r="G192" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H192" s="3">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="1">
+        <v>204</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D193" s="1">
+        <v>25.762711864406779</v>
+      </c>
+      <c r="E193" s="10">
+        <f t="shared" ref="E193:E195" si="10">(D193*0.18)+D193</f>
+        <v>30.4</v>
+      </c>
+      <c r="F193" s="12">
+        <v>5</v>
+      </c>
+      <c r="G193" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H193" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="1">
+        <v>205</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D194" s="1">
+        <v>16.949152542372882</v>
+      </c>
+      <c r="E194" s="10">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="F194" s="12">
+        <v>5</v>
+      </c>
+      <c r="G194" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H194" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="1">
+        <v>206</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="D195" s="1">
+        <v>133.72881355932205</v>
+      </c>
+      <c r="E195" s="10">
+        <f t="shared" si="10"/>
+        <v>157.80000000000001</v>
+      </c>
+      <c r="F195" s="12">
+        <v>5</v>
+      </c>
+      <c r="G195" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H195" s="3">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="1">
+        <v>207</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="D196" s="1">
+        <v>101.69491525423729</v>
+      </c>
+      <c r="E196" s="10">
+        <f t="shared" ref="E196:E198" si="11">(D196*0.18)+D196</f>
+        <v>120</v>
+      </c>
+      <c r="F196" s="12">
+        <v>5</v>
+      </c>
+      <c r="G196" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H196" s="3">
+        <v>44637</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="1">
+        <v>208</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D197" s="1">
+        <v>55.762711864406782</v>
+      </c>
+      <c r="E197" s="10">
+        <f t="shared" si="11"/>
+        <v>65.8</v>
+      </c>
+      <c r="F197" s="12">
+        <v>5</v>
+      </c>
+      <c r="G197" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H197" s="3">
+        <v>44637</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="1">
+        <v>209</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>2505</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>2506</v>
+      </c>
+      <c r="D198" s="1">
+        <v>62.542372881355931</v>
+      </c>
+      <c r="E198" s="10">
+        <f t="shared" si="11"/>
+        <v>73.8</v>
+      </c>
+      <c r="F198" s="12">
+        <v>5</v>
+      </c>
+      <c r="G198" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H198" s="3">
+        <v>44637</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="6">
+        <v>210</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="D199" s="6">
+        <v>152.54237288135593</v>
+      </c>
+      <c r="E199" s="19">
+        <f t="shared" ref="E199:E202" si="12">(D199*0.18)+D199</f>
+        <v>180</v>
+      </c>
+      <c r="F199" s="17">
+        <v>5</v>
+      </c>
+      <c r="G199" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H199" s="18">
+        <v>44638</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="6">
+        <v>211</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D200" s="6">
+        <v>9.6610169491525433</v>
+      </c>
+      <c r="E200" s="19">
+        <f t="shared" si="12"/>
+        <v>11.4</v>
+      </c>
+      <c r="F200" s="17">
+        <v>5</v>
+      </c>
+      <c r="G200" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H200" s="18">
+        <v>44638</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="6">
+        <v>212</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>2522</v>
+      </c>
+      <c r="D201" s="6">
+        <v>14.237288135593221</v>
+      </c>
+      <c r="E201" s="19">
+        <f t="shared" si="12"/>
+        <v>16.8</v>
+      </c>
+      <c r="F201" s="17">
+        <v>5</v>
+      </c>
+      <c r="G201" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H201" s="18">
+        <v>44638</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="6">
+        <v>213</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>2524</v>
+      </c>
+      <c r="D202" s="6">
+        <v>135.59322033898306</v>
+      </c>
+      <c r="E202" s="19">
+        <f t="shared" si="12"/>
+        <v>160</v>
+      </c>
+      <c r="F202" s="17">
+        <v>5</v>
+      </c>
+      <c r="G202" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H202" s="18">
+        <v>44638</v>
       </c>
     </row>
   </sheetData>

--- a/DESEMBOLSOS XLSX/DESEMBOLSOS GENERAL.xlsx
+++ b/DESEMBOLSOS XLSX/DESEMBOLSOS GENERAL.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4797" uniqueCount="2525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4842" uniqueCount="2543">
   <si>
     <t>NUMERO</t>
   </si>
@@ -7598,6 +7598,60 @@
   </si>
   <si>
     <t>47848717</t>
+  </si>
+  <si>
+    <t>Chavez Corilloclla Rosa Angelica</t>
+  </si>
+  <si>
+    <t>04070624</t>
+  </si>
+  <si>
+    <t>Maldonado Pizarro De Vila Marcelina</t>
+  </si>
+  <si>
+    <t>19845870</t>
+  </si>
+  <si>
+    <t>Espinoza Saez Jesus</t>
+  </si>
+  <si>
+    <t>48275547</t>
+  </si>
+  <si>
+    <t>Criollo Gonzales Beatriz</t>
+  </si>
+  <si>
+    <t>45876768</t>
+  </si>
+  <si>
+    <t>Vilca Muñoz Sara</t>
+  </si>
+  <si>
+    <t>42276658</t>
+  </si>
+  <si>
+    <t>Condor Quincho Luisa Isabel</t>
+  </si>
+  <si>
+    <t>10044737</t>
+  </si>
+  <si>
+    <t>Ramos Mendoza Celso Efrain</t>
+  </si>
+  <si>
+    <t>41687066</t>
+  </si>
+  <si>
+    <t>Chuco Castro Teresa</t>
+  </si>
+  <si>
+    <t>20030603</t>
+  </si>
+  <si>
+    <t>Capcha Sinche Estefania</t>
+  </si>
+  <si>
+    <t>19882165</t>
   </si>
 </sst>
 </file>
@@ -8016,10 +8070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H505"/>
+  <dimension ref="A1:H513"/>
   <sheetViews>
     <sheetView topLeftCell="A491" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B497" sqref="B497"/>
+      <selection activeCell="B499" sqref="B499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -21500,165 +21554,381 @@
       </c>
     </row>
     <row r="500" spans="1:8">
-      <c r="A500" s="6">
+      <c r="A500" s="1">
         <v>535</v>
       </c>
-      <c r="B500" s="6" t="s">
+      <c r="B500" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="C500" s="6" t="s">
+      <c r="C500" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="D500" s="6">
+      <c r="D500" s="1">
         <v>35.593220338983052</v>
       </c>
-      <c r="E500" s="19">
+      <c r="E500" s="10">
         <f t="shared" ref="E500:E505" si="14">(D500*0.18)+D500</f>
         <v>42</v>
       </c>
-      <c r="F500" s="17">
-        <v>1</v>
-      </c>
-      <c r="G500" s="17" t="s">
+      <c r="F500" s="12">
+        <v>1</v>
+      </c>
+      <c r="G500" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H500" s="18">
+      <c r="H500" s="3">
         <v>44638</v>
       </c>
     </row>
     <row r="501" spans="1:8">
-      <c r="A501" s="6">
+      <c r="A501" s="1">
         <v>536</v>
       </c>
-      <c r="B501" s="6" t="s">
+      <c r="B501" s="1" t="s">
         <v>2507</v>
       </c>
-      <c r="C501" s="6" t="s">
+      <c r="C501" s="1" t="s">
         <v>2508</v>
       </c>
-      <c r="D501" s="6">
+      <c r="D501" s="1">
         <v>114.49152542372882</v>
       </c>
-      <c r="E501" s="19">
+      <c r="E501" s="10">
         <f t="shared" si="14"/>
         <v>135.1</v>
       </c>
-      <c r="F501" s="17">
-        <v>1</v>
-      </c>
-      <c r="G501" s="17" t="s">
+      <c r="F501" s="12">
+        <v>1</v>
+      </c>
+      <c r="G501" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H501" s="18">
+      <c r="H501" s="3">
         <v>44638</v>
       </c>
     </row>
     <row r="502" spans="1:8">
-      <c r="A502" s="6">
+      <c r="A502" s="1">
         <v>537</v>
       </c>
-      <c r="B502" s="6" t="s">
+      <c r="B502" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="C502" s="6" t="s">
+      <c r="C502" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="D502" s="6">
+      <c r="D502" s="1">
         <v>71.186440677966104</v>
       </c>
-      <c r="E502" s="19">
+      <c r="E502" s="10">
         <f t="shared" si="14"/>
         <v>84</v>
       </c>
-      <c r="F502" s="17">
-        <v>1</v>
-      </c>
-      <c r="G502" s="17" t="s">
+      <c r="F502" s="12">
+        <v>1</v>
+      </c>
+      <c r="G502" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H502" s="18">
+      <c r="H502" s="3">
         <v>44638</v>
       </c>
     </row>
     <row r="503" spans="1:8">
-      <c r="A503" s="6">
+      <c r="A503" s="1">
         <v>538</v>
       </c>
-      <c r="B503" s="6" t="s">
+      <c r="B503" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C503" s="6" t="s">
+      <c r="C503" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D503" s="6">
+      <c r="D503" s="1">
         <v>59.661016949152547</v>
       </c>
-      <c r="E503" s="19">
+      <c r="E503" s="10">
         <f t="shared" si="14"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="F503" s="17">
-        <v>1</v>
-      </c>
-      <c r="G503" s="17" t="s">
+      <c r="F503" s="12">
+        <v>1</v>
+      </c>
+      <c r="G503" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H503" s="18">
+      <c r="H503" s="3">
         <v>44638</v>
       </c>
     </row>
     <row r="504" spans="1:8">
-      <c r="A504" s="6">
+      <c r="A504" s="1">
         <v>539</v>
       </c>
-      <c r="B504" s="6" t="s">
+      <c r="B504" s="1" t="s">
         <v>2509</v>
       </c>
-      <c r="C504" s="6" t="s">
+      <c r="C504" s="1" t="s">
         <v>2510</v>
       </c>
-      <c r="D504" s="6">
+      <c r="D504" s="1">
         <v>59.661016949152547</v>
       </c>
-      <c r="E504" s="19">
+      <c r="E504" s="10">
         <f t="shared" si="14"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="F504" s="17">
-        <v>1</v>
-      </c>
-      <c r="G504" s="17" t="s">
+      <c r="F504" s="12">
+        <v>1</v>
+      </c>
+      <c r="G504" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H504" s="18">
+      <c r="H504" s="3">
         <v>44638</v>
       </c>
     </row>
     <row r="505" spans="1:8">
-      <c r="A505" s="6">
+      <c r="A505" s="1">
         <v>540</v>
       </c>
-      <c r="B505" s="6" t="s">
+      <c r="B505" s="1" t="s">
         <v>2511</v>
       </c>
-      <c r="C505" s="6" t="s">
+      <c r="C505" s="1" t="s">
         <v>2512</v>
       </c>
-      <c r="D505" s="6">
+      <c r="D505" s="1">
         <v>59.661016949152547</v>
       </c>
-      <c r="E505" s="19">
+      <c r="E505" s="10">
         <f t="shared" si="14"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="F505" s="17">
-        <v>1</v>
-      </c>
-      <c r="G505" s="17" t="s">
+      <c r="F505" s="12">
+        <v>1</v>
+      </c>
+      <c r="G505" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H505" s="18">
+      <c r="H505" s="3">
         <v>44638</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8">
+      <c r="A506" s="6">
+        <v>541</v>
+      </c>
+      <c r="B506" s="6" t="s">
+        <v>2525</v>
+      </c>
+      <c r="C506" s="6" t="s">
+        <v>2526</v>
+      </c>
+      <c r="D506" s="6">
+        <v>104.40677966101696</v>
+      </c>
+      <c r="E506" s="19">
+        <f t="shared" ref="E506:E513" si="15">(D506*0.18)+D506</f>
+        <v>123.2</v>
+      </c>
+      <c r="F506" s="17">
+        <v>1</v>
+      </c>
+      <c r="G506" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H506" s="18">
+        <v>44639</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8">
+      <c r="A507" s="6">
+        <v>542</v>
+      </c>
+      <c r="B507" s="6" t="s">
+        <v>2527</v>
+      </c>
+      <c r="C507" s="6" t="s">
+        <v>2528</v>
+      </c>
+      <c r="D507" s="6">
+        <v>63.13559322033899</v>
+      </c>
+      <c r="E507" s="19">
+        <f t="shared" si="15"/>
+        <v>74.5</v>
+      </c>
+      <c r="F507" s="17">
+        <v>1</v>
+      </c>
+      <c r="G507" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H507" s="18">
+        <v>44639</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8">
+      <c r="A508" s="6">
+        <v>543</v>
+      </c>
+      <c r="B508" s="6" t="s">
+        <v>2529</v>
+      </c>
+      <c r="C508" s="6" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D508" s="6">
+        <v>38.474576271186443</v>
+      </c>
+      <c r="E508" s="19">
+        <f t="shared" si="15"/>
+        <v>45.400000000000006</v>
+      </c>
+      <c r="F508" s="17">
+        <v>1</v>
+      </c>
+      <c r="G508" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H508" s="18">
+        <v>44639</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8">
+      <c r="A509" s="6">
+        <v>544</v>
+      </c>
+      <c r="B509" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="C509" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="D509" s="6">
+        <v>14.40677966101695</v>
+      </c>
+      <c r="E509" s="19">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="F509" s="17">
+        <v>1</v>
+      </c>
+      <c r="G509" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H509" s="18">
+        <v>44639</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8">
+      <c r="A510" s="6">
+        <v>545</v>
+      </c>
+      <c r="B510" s="6" t="s">
+        <v>2531</v>
+      </c>
+      <c r="C510" s="6" t="s">
+        <v>2532</v>
+      </c>
+      <c r="D510" s="6">
+        <v>77.288135593220346</v>
+      </c>
+      <c r="E510" s="19">
+        <f t="shared" si="15"/>
+        <v>91.2</v>
+      </c>
+      <c r="F510" s="17">
+        <v>1</v>
+      </c>
+      <c r="G510" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H510" s="18">
+        <v>44639</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8">
+      <c r="A511" s="6">
+        <v>546</v>
+      </c>
+      <c r="B511" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C511" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D511" s="6">
+        <v>20.33898305084746</v>
+      </c>
+      <c r="E511" s="19">
+        <f t="shared" si="15"/>
+        <v>24.000000000000004</v>
+      </c>
+      <c r="F511" s="17">
+        <v>1</v>
+      </c>
+      <c r="G511" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H511" s="18">
+        <v>44639</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8">
+      <c r="A512" s="6">
+        <v>547</v>
+      </c>
+      <c r="B512" s="6" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C512" s="6" t="s">
+        <v>2534</v>
+      </c>
+      <c r="D512" s="6">
+        <v>34.576271186440678</v>
+      </c>
+      <c r="E512" s="19">
+        <f t="shared" si="15"/>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="F512" s="17">
+        <v>1</v>
+      </c>
+      <c r="G512" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H512" s="18">
+        <v>44639</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8">
+      <c r="A513" s="6">
+        <v>548</v>
+      </c>
+      <c r="B513" s="6" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C513" s="6" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D513" s="6">
+        <v>101.86440677966102</v>
+      </c>
+      <c r="E513" s="19">
+        <f t="shared" si="15"/>
+        <v>120.2</v>
+      </c>
+      <c r="F513" s="17">
+        <v>1</v>
+      </c>
+      <c r="G513" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H513" s="18">
+        <v>44639</v>
       </c>
     </row>
   </sheetData>
@@ -21669,10 +21939,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H308"/>
+  <dimension ref="A1:H310"/>
   <sheetViews>
     <sheetView topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="C299" sqref="C299"/>
+      <selection activeCell="E316" sqref="E316:E317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -29857,139 +30127,159 @@
       </c>
     </row>
     <row r="304" spans="1:8">
-      <c r="A304" s="6">
+      <c r="A304" s="1">
         <v>327</v>
       </c>
-      <c r="B304" s="6" t="s">
+      <c r="B304" s="1" t="s">
         <v>2513</v>
       </c>
-      <c r="C304" s="6" t="s">
+      <c r="C304" s="1" t="s">
         <v>2514</v>
       </c>
-      <c r="D304" s="6">
+      <c r="D304" s="1">
         <v>50.847457627118644</v>
       </c>
-      <c r="E304" s="15">
+      <c r="E304" s="2">
         <f t="shared" ref="E304:E308" si="12">(D304*0.18)+D304</f>
         <v>60</v>
       </c>
-      <c r="F304" s="6">
+      <c r="F304" s="1">
         <v>2</v>
       </c>
-      <c r="G304" s="6" t="s">
+      <c r="G304" s="1" t="s">
         <v>1720</v>
       </c>
-      <c r="H304" s="18">
+      <c r="H304" s="3">
         <v>44638</v>
       </c>
     </row>
     <row r="305" spans="1:8">
-      <c r="A305" s="6">
+      <c r="A305" s="1">
         <v>328</v>
       </c>
-      <c r="B305" s="6" t="s">
+      <c r="B305" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="C305" s="6" t="s">
+      <c r="C305" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="D305" s="6">
+      <c r="D305" s="1">
         <v>30.508474576271187</v>
       </c>
-      <c r="E305" s="15">
+      <c r="E305" s="2">
         <f t="shared" si="12"/>
         <v>36</v>
       </c>
-      <c r="F305" s="6">
+      <c r="F305" s="1">
         <v>2</v>
       </c>
-      <c r="G305" s="6" t="s">
+      <c r="G305" s="1" t="s">
         <v>1720</v>
       </c>
-      <c r="H305" s="18">
+      <c r="H305" s="3">
         <v>44638</v>
       </c>
     </row>
     <row r="306" spans="1:8">
-      <c r="A306" s="6">
+      <c r="A306" s="1">
         <v>329</v>
       </c>
-      <c r="B306" s="6" t="s">
+      <c r="B306" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C306" s="6" t="s">
+      <c r="C306" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="D306" s="6">
+      <c r="D306" s="1">
         <v>50.847457627118644</v>
       </c>
-      <c r="E306" s="15">
+      <c r="E306" s="2">
         <f t="shared" si="12"/>
         <v>60</v>
       </c>
-      <c r="F306" s="6">
+      <c r="F306" s="1">
         <v>2</v>
       </c>
-      <c r="G306" s="6" t="s">
+      <c r="G306" s="1" t="s">
         <v>1720</v>
       </c>
-      <c r="H306" s="18">
+      <c r="H306" s="3">
         <v>44638</v>
       </c>
     </row>
     <row r="307" spans="1:8">
-      <c r="A307" s="6">
+      <c r="A307" s="1">
         <v>330</v>
       </c>
-      <c r="B307" s="6" t="s">
+      <c r="B307" s="1" t="s">
         <v>2515</v>
       </c>
-      <c r="C307" s="6" t="s">
+      <c r="C307" s="1" t="s">
         <v>2516</v>
       </c>
-      <c r="D307" s="6">
+      <c r="D307" s="1">
         <v>25.423728813559322</v>
       </c>
-      <c r="E307" s="15">
+      <c r="E307" s="2">
         <f t="shared" si="12"/>
         <v>30</v>
       </c>
-      <c r="F307" s="6">
+      <c r="F307" s="1">
         <v>2</v>
       </c>
-      <c r="G307" s="6" t="s">
+      <c r="G307" s="1" t="s">
         <v>1720</v>
       </c>
-      <c r="H307" s="18">
+      <c r="H307" s="3">
         <v>44638</v>
       </c>
     </row>
     <row r="308" spans="1:8">
-      <c r="A308" s="6">
+      <c r="A308" s="1">
         <v>331</v>
       </c>
-      <c r="B308" s="6" t="s">
+      <c r="B308" s="1" t="s">
         <v>2517</v>
       </c>
-      <c r="C308" s="6" t="s">
+      <c r="C308" s="1" t="s">
         <v>2518</v>
       </c>
-      <c r="D308" s="6">
+      <c r="D308" s="1">
         <v>50.847457627118644</v>
       </c>
-      <c r="E308" s="15">
+      <c r="E308" s="2">
         <f t="shared" si="12"/>
         <v>60</v>
       </c>
-      <c r="F308" s="6">
+      <c r="F308" s="1">
         <v>2</v>
       </c>
-      <c r="G308" s="6" t="s">
+      <c r="G308" s="1" t="s">
         <v>1720</v>
       </c>
-      <c r="H308" s="18">
+      <c r="H308" s="3">
         <v>44638</v>
       </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="A309" s="6"/>
+      <c r="B309" s="6"/>
+      <c r="C309" s="6"/>
+      <c r="D309" s="6"/>
+      <c r="E309" s="15"/>
+      <c r="F309" s="6"/>
+      <c r="G309" s="6"/>
+      <c r="H309" s="18"/>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="A310" s="6"/>
+      <c r="B310" s="6"/>
+      <c r="C310" s="6"/>
+      <c r="D310" s="6"/>
+      <c r="E310" s="15"/>
+      <c r="F310" s="6"/>
+      <c r="G310" s="6"/>
+      <c r="H310" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29999,10 +30289,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I292"/>
+  <dimension ref="A1:I294"/>
   <sheetViews>
     <sheetView topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="A290" sqref="A290:H292"/>
+      <selection activeCell="A293" sqref="A293:H294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -37816,84 +38106,138 @@
       </c>
     </row>
     <row r="290" spans="1:8">
-      <c r="A290" s="6">
+      <c r="A290" s="1">
         <v>314</v>
       </c>
-      <c r="B290" s="6" t="s">
+      <c r="B290" s="1" t="s">
         <v>2499</v>
       </c>
-      <c r="C290" s="6" t="s">
+      <c r="C290" s="1" t="s">
         <v>2500</v>
       </c>
-      <c r="D290" s="6">
+      <c r="D290" s="1">
         <v>42.457627118644069</v>
       </c>
-      <c r="E290" s="15">
+      <c r="E290" s="2">
         <f t="shared" ref="E290:E292" si="12">(D290*0.18)+D290</f>
         <v>50.1</v>
       </c>
-      <c r="F290" s="17">
+      <c r="F290" s="12">
         <v>3</v>
       </c>
-      <c r="G290" s="17" t="s">
+      <c r="G290" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H290" s="18">
+      <c r="H290" s="3">
         <v>44637</v>
       </c>
     </row>
     <row r="291" spans="1:8">
-      <c r="A291" s="6">
+      <c r="A291" s="1">
         <v>315</v>
       </c>
-      <c r="B291" s="6" t="s">
+      <c r="B291" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C291" s="6" t="s">
+      <c r="C291" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="D291" s="6">
+      <c r="D291" s="1">
         <v>40.677966101694921</v>
       </c>
-      <c r="E291" s="15">
+      <c r="E291" s="2">
         <f t="shared" si="12"/>
         <v>48.000000000000007</v>
       </c>
-      <c r="F291" s="17">
+      <c r="F291" s="12">
         <v>3</v>
       </c>
-      <c r="G291" s="17" t="s">
+      <c r="G291" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H291" s="18">
+      <c r="H291" s="3">
         <v>44637</v>
       </c>
     </row>
     <row r="292" spans="1:8">
-      <c r="A292" s="6">
+      <c r="A292" s="1">
         <v>316</v>
       </c>
-      <c r="B292" s="6" t="s">
+      <c r="B292" s="1" t="s">
         <v>2501</v>
       </c>
-      <c r="C292" s="6" t="s">
+      <c r="C292" s="1" t="s">
         <v>2502</v>
       </c>
-      <c r="D292" s="6">
+      <c r="D292" s="1">
         <v>68.474576271186436</v>
       </c>
-      <c r="E292" s="15">
+      <c r="E292" s="2">
         <f t="shared" si="12"/>
         <v>80.8</v>
       </c>
-      <c r="F292" s="17">
+      <c r="F292" s="12">
         <v>3</v>
       </c>
-      <c r="G292" s="17" t="s">
+      <c r="G292" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H292" s="18">
+      <c r="H292" s="3">
         <v>44637</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" s="6">
+        <v>317</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>2535</v>
+      </c>
+      <c r="C293" s="6" t="s">
+        <v>2536</v>
+      </c>
+      <c r="D293" s="6">
+        <v>127.54237288135594</v>
+      </c>
+      <c r="E293" s="15">
+        <f t="shared" ref="E293:E294" si="13">(D293*0.18)+D293</f>
+        <v>150.5</v>
+      </c>
+      <c r="F293" s="17">
+        <v>3</v>
+      </c>
+      <c r="G293" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H293" s="18">
+        <v>44639</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" s="6">
+        <v>318</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D294" s="6">
+        <v>68.474576271186436</v>
+      </c>
+      <c r="E294" s="15">
+        <f t="shared" si="13"/>
+        <v>80.8</v>
+      </c>
+      <c r="F294" s="17">
+        <v>3</v>
+      </c>
+      <c r="G294" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H294" s="18">
+        <v>44639</v>
       </c>
     </row>
   </sheetData>
@@ -37903,10 +38247,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I275"/>
+  <dimension ref="A1:I279"/>
   <sheetViews>
     <sheetView topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="B266" sqref="B266"/>
+      <selection activeCell="B265" sqref="B265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -45195,138 +45539,246 @@
       </c>
     </row>
     <row r="271" spans="1:8">
-      <c r="A271" s="6">
+      <c r="A271" s="1">
         <v>285</v>
       </c>
-      <c r="B271" s="6" t="s">
+      <c r="B271" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="C271" s="6" t="s">
+      <c r="C271" s="1" t="s">
         <v>1475</v>
       </c>
-      <c r="D271" s="6">
+      <c r="D271" s="1">
         <v>68.474576271186436</v>
       </c>
-      <c r="E271" s="15">
+      <c r="E271" s="2">
         <f t="shared" ref="E271:E275" si="12">(D271*0.18)+D271</f>
         <v>80.8</v>
       </c>
-      <c r="F271" s="17">
+      <c r="F271" s="12">
         <v>4</v>
       </c>
-      <c r="G271" s="17" t="s">
+      <c r="G271" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H271" s="18">
+      <c r="H271" s="3">
         <v>44638</v>
       </c>
     </row>
     <row r="272" spans="1:8">
-      <c r="A272" s="6">
+      <c r="A272" s="1">
         <v>286</v>
       </c>
-      <c r="B272" s="6" t="s">
+      <c r="B272" s="1" t="s">
         <v>2519</v>
       </c>
-      <c r="C272" s="6" t="s">
+      <c r="C272" s="1" t="s">
         <v>2520</v>
       </c>
-      <c r="D272" s="6">
+      <c r="D272" s="1">
         <v>35.932203389830512</v>
       </c>
-      <c r="E272" s="15">
+      <c r="E272" s="2">
         <f t="shared" si="12"/>
         <v>42.400000000000006</v>
       </c>
-      <c r="F272" s="17">
+      <c r="F272" s="12">
         <v>4</v>
       </c>
-      <c r="G272" s="17" t="s">
+      <c r="G272" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H272" s="18">
+      <c r="H272" s="3">
         <v>44638</v>
       </c>
     </row>
     <row r="273" spans="1:8">
-      <c r="A273" s="6">
+      <c r="A273" s="1">
         <v>287</v>
       </c>
-      <c r="B273" s="6" t="s">
+      <c r="B273" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="C273" s="6" t="s">
+      <c r="C273" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D273" s="6">
+      <c r="D273" s="1">
         <v>59.661016949152547</v>
       </c>
-      <c r="E273" s="15">
+      <c r="E273" s="2">
         <f t="shared" si="12"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="F273" s="17">
+      <c r="F273" s="12">
         <v>4</v>
       </c>
-      <c r="G273" s="17" t="s">
+      <c r="G273" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H273" s="18">
+      <c r="H273" s="3">
         <v>44638</v>
       </c>
     </row>
     <row r="274" spans="1:8">
-      <c r="A274" s="6">
+      <c r="A274" s="1">
         <v>288</v>
       </c>
-      <c r="B274" s="6" t="s">
+      <c r="B274" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C274" s="6" t="s">
+      <c r="C274" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="D274" s="6">
+      <c r="D274" s="1">
         <v>12.881355932203389</v>
       </c>
-      <c r="E274" s="15">
+      <c r="E274" s="2">
         <f t="shared" si="12"/>
         <v>15.2</v>
       </c>
-      <c r="F274" s="17">
+      <c r="F274" s="12">
         <v>4</v>
       </c>
-      <c r="G274" s="17" t="s">
+      <c r="G274" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H274" s="18">
+      <c r="H274" s="3">
         <v>44638</v>
       </c>
     </row>
     <row r="275" spans="1:8">
-      <c r="A275" s="6">
+      <c r="A275" s="1">
         <v>289</v>
       </c>
-      <c r="B275" s="6" t="s">
+      <c r="B275" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C275" s="6" t="s">
+      <c r="C275" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D275" s="6">
+      <c r="D275" s="1">
         <v>76.271186440677965</v>
       </c>
-      <c r="E275" s="15">
+      <c r="E275" s="2">
         <f t="shared" si="12"/>
         <v>90</v>
       </c>
-      <c r="F275" s="17">
+      <c r="F275" s="12">
         <v>4</v>
       </c>
-      <c r="G275" s="17" t="s">
+      <c r="G275" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H275" s="18">
+      <c r="H275" s="3">
         <v>44638</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" s="6">
+        <v>290</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D276" s="6">
+        <v>27.118644067796613</v>
+      </c>
+      <c r="E276" s="15">
+        <f t="shared" ref="E276:E279" si="13">(D276*0.18)+D276</f>
+        <v>32</v>
+      </c>
+      <c r="F276" s="17">
+        <v>4</v>
+      </c>
+      <c r="G276" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H276" s="18">
+        <v>44639</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" s="6">
+        <v>291</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="D277" s="6">
+        <v>81.355932203389841</v>
+      </c>
+      <c r="E277" s="15">
+        <f t="shared" si="13"/>
+        <v>96.000000000000014</v>
+      </c>
+      <c r="F277" s="17">
+        <v>4</v>
+      </c>
+      <c r="G277" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H277" s="18">
+        <v>44639</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" s="6">
+        <v>292</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>2539</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D278" s="6">
+        <v>51.525423728813557</v>
+      </c>
+      <c r="E278" s="15">
+        <f t="shared" si="13"/>
+        <v>60.8</v>
+      </c>
+      <c r="F278" s="17">
+        <v>4</v>
+      </c>
+      <c r="G278" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H278" s="18">
+        <v>44639</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="6">
+        <v>293</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>2542</v>
+      </c>
+      <c r="D279" s="6">
+        <v>18.135593220338983</v>
+      </c>
+      <c r="E279" s="15">
+        <f t="shared" si="13"/>
+        <v>21.4</v>
+      </c>
+      <c r="F279" s="17">
+        <v>4</v>
+      </c>
+      <c r="G279" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H279" s="18">
+        <v>44639</v>
       </c>
     </row>
   </sheetData>
@@ -45336,10 +45788,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H202"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="C191" sqref="C191"/>
+      <selection activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -50683,111 +51135,138 @@
       </c>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="6">
+      <c r="A199" s="1">
         <v>210</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B199" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="C199" s="6" t="s">
+      <c r="C199" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="D199" s="6">
+      <c r="D199" s="1">
         <v>152.54237288135593</v>
       </c>
-      <c r="E199" s="19">
+      <c r="E199" s="10">
         <f t="shared" ref="E199:E202" si="12">(D199*0.18)+D199</f>
         <v>180</v>
       </c>
-      <c r="F199" s="17">
+      <c r="F199" s="12">
         <v>5</v>
       </c>
-      <c r="G199" s="17" t="s">
+      <c r="G199" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H199" s="18">
+      <c r="H199" s="3">
         <v>44638</v>
       </c>
     </row>
     <row r="200" spans="1:8">
-      <c r="A200" s="6">
+      <c r="A200" s="1">
         <v>211</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="B200" s="1" t="s">
         <v>1362</v>
       </c>
-      <c r="C200" s="6" t="s">
+      <c r="C200" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="D200" s="6">
+      <c r="D200" s="1">
         <v>9.6610169491525433</v>
       </c>
-      <c r="E200" s="19">
+      <c r="E200" s="10">
         <f t="shared" si="12"/>
         <v>11.4</v>
       </c>
-      <c r="F200" s="17">
+      <c r="F200" s="12">
         <v>5</v>
       </c>
-      <c r="G200" s="17" t="s">
+      <c r="G200" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H200" s="18">
+      <c r="H200" s="3">
         <v>44638</v>
       </c>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201" s="6">
+      <c r="A201" s="1">
         <v>212</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="B201" s="1" t="s">
         <v>2521</v>
       </c>
-      <c r="C201" s="6" t="s">
+      <c r="C201" s="1" t="s">
         <v>2522</v>
       </c>
-      <c r="D201" s="6">
+      <c r="D201" s="1">
         <v>14.237288135593221</v>
       </c>
-      <c r="E201" s="19">
+      <c r="E201" s="10">
         <f t="shared" si="12"/>
         <v>16.8</v>
       </c>
-      <c r="F201" s="17">
+      <c r="F201" s="12">
         <v>5</v>
       </c>
-      <c r="G201" s="17" t="s">
+      <c r="G201" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H201" s="18">
+      <c r="H201" s="3">
         <v>44638</v>
       </c>
     </row>
     <row r="202" spans="1:8">
-      <c r="A202" s="6">
+      <c r="A202" s="1">
         <v>213</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B202" s="1" t="s">
         <v>2523</v>
       </c>
-      <c r="C202" s="6" t="s">
+      <c r="C202" s="1" t="s">
         <v>2524</v>
       </c>
-      <c r="D202" s="6">
+      <c r="D202" s="1">
         <v>135.59322033898306</v>
       </c>
-      <c r="E202" s="19">
+      <c r="E202" s="10">
         <f t="shared" si="12"/>
         <v>160</v>
       </c>
-      <c r="F202" s="17">
+      <c r="F202" s="12">
         <v>5</v>
       </c>
-      <c r="G202" s="17" t="s">
+      <c r="G202" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H202" s="18">
+      <c r="H202" s="3">
         <v>44638</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="6">
+        <v>214</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D203" s="6">
+        <v>237.28813559322035</v>
+      </c>
+      <c r="E203" s="19">
+        <f t="shared" ref="E203" si="13">(D203*0.18)+D203</f>
+        <v>280</v>
+      </c>
+      <c r="F203" s="17">
+        <v>5</v>
+      </c>
+      <c r="G203" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H203" s="18">
+        <v>44639</v>
       </c>
     </row>
   </sheetData>
